--- a/laporan/data.xlsx
+++ b/laporan/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\zen\pesantren\rekap-tahfidz\laporan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1C465F5-EB89-4FC6-B6AD-9A8C3011D717}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C98DB93-66A5-4FEA-9053-276189D7BBCF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7050" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="186">
   <si>
     <t>Arviandow</t>
   </si>
@@ -500,6 +500,84 @@
   </si>
   <si>
     <t>surat juli</t>
+  </si>
+  <si>
+    <t>Maryam Fikria Tasya</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Al-Infithar</t>
+  </si>
+  <si>
+    <t>Ali Imran: 9</t>
+  </si>
+  <si>
+    <t>Ali Imran: 200</t>
+  </si>
+  <si>
+    <t>Al-Baqarah: 112</t>
+  </si>
+  <si>
+    <t>Al-An'am: 73</t>
+  </si>
+  <si>
+    <t>Al-Baqarah: 274</t>
+  </si>
+  <si>
+    <t>An-Nisa: 11</t>
+  </si>
+  <si>
+    <t>Al-Baqarah: 286</t>
+  </si>
+  <si>
+    <t>An-Nisa: 86</t>
+  </si>
+  <si>
+    <t>Al-A'raf: 11</t>
+  </si>
+  <si>
+    <t>Yunus: 42</t>
+  </si>
+  <si>
+    <t>Al-A'raf: 30</t>
+  </si>
+  <si>
+    <t>Al-A'raf: 165</t>
+  </si>
+  <si>
+    <t>Yunus: 70</t>
+  </si>
+  <si>
+    <t>At-Taubah: 6</t>
+  </si>
+  <si>
+    <t>Al-An'am: 118</t>
+  </si>
+  <si>
+    <t>An-Nisa: 79</t>
+  </si>
+  <si>
+    <t>Yunus: 97</t>
+  </si>
+  <si>
+    <t>At-Taubah: 99</t>
+  </si>
+  <si>
+    <t>Al-Maidah: 9</t>
+  </si>
+  <si>
+    <t>Al-Maidah: 103</t>
+  </si>
+  <si>
+    <t>An-Nahl: 14</t>
+  </si>
+  <si>
+    <t>Ibrahim: 42</t>
+  </si>
+  <si>
+    <t>Al-An'am: 35</t>
   </si>
 </sst>
 </file>
@@ -582,7 +660,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -644,6 +722,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -919,10 +1003,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28CEA5EC-DFE8-44DB-96C9-DD9EA0A1E2F6}">
-  <dimension ref="A1:S35"/>
+  <dimension ref="A1:S36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1000,10 +1084,10 @@
         <v>36</v>
       </c>
       <c r="C2" s="3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>110</v>
+        <v>172</v>
       </c>
       <c r="F2" s="7" t="s">
         <v>35</v>
@@ -1053,7 +1137,7 @@
         <v>30</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>96</v>
+        <v>162</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>0</v>
@@ -1103,7 +1187,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>97</v>
+        <v>163</v>
       </c>
       <c r="F4" s="9" t="s">
         <v>2</v>
@@ -1150,10 +1234,10 @@
         <v>40</v>
       </c>
       <c r="C5" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>112</v>
+        <v>174</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>39</v>
@@ -1200,10 +1284,10 @@
         <v>19</v>
       </c>
       <c r="C6" s="3">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="F6" s="9" t="s">
         <v>18</v>
@@ -1250,10 +1334,10 @@
         <v>21</v>
       </c>
       <c r="C7" s="3">
-        <v>1</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>103</v>
+        <v>2</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>102</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>20</v>
@@ -1300,10 +1384,10 @@
         <v>5</v>
       </c>
       <c r="C8" s="3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>68</v>
+        <v>166</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>4</v>
@@ -1350,10 +1434,10 @@
         <v>66</v>
       </c>
       <c r="C9" s="3">
-        <v>3</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>123</v>
+        <v>4</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>106</v>
       </c>
       <c r="F9" s="9" t="s">
         <v>65</v>
@@ -1400,10 +1484,10 @@
         <v>34</v>
       </c>
       <c r="C10" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>109</v>
+        <v>171</v>
       </c>
       <c r="F10" s="13" t="s">
         <v>71</v>
@@ -1450,10 +1534,10 @@
         <v>52</v>
       </c>
       <c r="C11" s="3">
-        <v>10</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>117</v>
+        <v>11</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>179</v>
       </c>
       <c r="F11" s="9" t="s">
         <v>51</v>
@@ -1500,10 +1584,10 @@
         <v>7</v>
       </c>
       <c r="C12" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>98</v>
+        <v>164</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>6</v>
@@ -1550,10 +1634,10 @@
         <v>38</v>
       </c>
       <c r="C13" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>111</v>
+        <v>173</v>
       </c>
       <c r="F13" s="9" t="s">
         <v>37</v>
@@ -1594,1106 +1678,1156 @@
     </row>
     <row r="14" spans="1:19">
       <c r="A14" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="B14" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="C14" s="6">
+        <v>1</v>
+      </c>
+      <c r="D14" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="G14" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="I14" s="24" t="s">
+        <v>161</v>
+      </c>
+      <c r="K14" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="L14" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="M14" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="N14" s="24" t="s">
+        <v>161</v>
+      </c>
+      <c r="P14" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q14" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="R14" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="S14" s="24" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
+      <c r="A15" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B15" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C15" s="3">
+        <v>4</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="H15" s="3">
         <v>3</v>
       </c>
-      <c r="D14" s="12" t="s">
+      <c r="I15" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="F14" s="9" t="s">
+      <c r="K15" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G14" s="10" t="s">
+      <c r="L15" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="H14" s="3">
-        <v>3</v>
-      </c>
-      <c r="I14" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="K14" s="4" t="s">
+      <c r="M15" s="3">
+        <v>2</v>
+      </c>
+      <c r="N15" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="P15" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="L14" s="18" t="s">
+      <c r="Q15" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="M14" s="3">
-        <v>2</v>
-      </c>
-      <c r="N14" s="19" t="s">
-        <v>134</v>
-      </c>
-      <c r="P14" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q14" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="R14" s="3">
+      <c r="R15" s="3">
         <v>30</v>
       </c>
-      <c r="S14" s="3" t="s">
+      <c r="S15" s="3" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="15" spans="1:19">
-      <c r="A15" s="7" t="s">
+    <row r="16" spans="1:19">
+      <c r="A16" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B16" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C16" s="3">
+        <v>11</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="H16" s="3">
         <v>10</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="I16" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="K16" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="G15" s="8" t="s">
+      <c r="L16" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="H15" s="3">
-        <v>10</v>
-      </c>
-      <c r="I15" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="K15" s="1" t="s">
+      <c r="M16" s="3">
+        <v>9</v>
+      </c>
+      <c r="N16" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="P16" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="L15" s="17" t="s">
+      <c r="Q16" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="M15" s="3">
-        <v>9</v>
-      </c>
-      <c r="N15" s="19" t="s">
-        <v>141</v>
-      </c>
-      <c r="P15" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q15" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="R15" s="3">
+      <c r="R16" s="3">
         <v>8</v>
       </c>
-      <c r="S15" s="3" t="s">
+      <c r="S16" s="3" t="s">
         <v>69</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19">
-      <c r="A16" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="3">
-        <v>1</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="F16" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="G16" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="H16" s="3">
-        <v>1</v>
-      </c>
-      <c r="I16" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="K16" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="L16" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="M16" s="3">
-        <v>1</v>
-      </c>
-      <c r="N16" s="19" t="s">
-        <v>101</v>
-      </c>
-      <c r="P16" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q16" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="R16" s="3">
-        <v>30</v>
-      </c>
-      <c r="S16" s="3" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:19">
       <c r="A17" s="9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C17" s="3">
         <v>1</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>100</v>
+        <v>165</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H17" s="3">
         <v>1</v>
       </c>
       <c r="I17" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="L17" s="18" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M17" s="3">
         <v>1</v>
       </c>
       <c r="N17" s="19" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="P17" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q17" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="R17" s="3">
         <v>30</v>
       </c>
       <c r="S17" s="3" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18" spans="1:19">
       <c r="A18" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C18" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G18" s="10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H18" s="3">
         <v>1</v>
       </c>
       <c r="I18" s="11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="L18" s="18" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M18" s="3">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="N18" s="19" t="s">
-        <v>129</v>
+        <v>89</v>
       </c>
       <c r="P18" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="Q18" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="R18" s="3">
         <v>30</v>
       </c>
       <c r="S18" s="3" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19" spans="1:19">
       <c r="A19" s="9" t="s">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="C19" s="3">
+        <v>1</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D19" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="F19" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="G19" s="10" t="s">
-        <v>60</v>
-      </c>
       <c r="H19" s="3">
+        <v>1</v>
+      </c>
+      <c r="I19" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="K19" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L19" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="I19" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="K19" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="L19" s="18" t="s">
-        <v>60</v>
-      </c>
       <c r="M19" s="3">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="N19" s="19" t="s">
-        <v>149</v>
+        <v>129</v>
       </c>
       <c r="P19" s="4" t="s">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="Q19" s="4" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="R19" s="3">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="S19" s="3" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
     </row>
     <row r="20" spans="1:19">
       <c r="A20" s="9" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C20" s="3">
-        <v>6</v>
-      </c>
-      <c r="D20" s="12" t="s">
-        <v>122</v>
+        <v>14</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>183</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="H20" s="3">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="I20" s="12" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="K20" s="4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="L20" s="18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="M20" s="3">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N20" s="19" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="P20" s="4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="Q20" s="4" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="R20" s="3">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="S20" s="3" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="21" spans="1:19">
       <c r="A21" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C21" s="3">
+        <v>7</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="H21" s="3">
+        <v>6</v>
+      </c>
+      <c r="I21" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="K21" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="L21" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="M21" s="3">
+        <v>5</v>
+      </c>
+      <c r="N21" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="P21" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q21" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="R21" s="3">
+        <v>5</v>
+      </c>
+      <c r="S21" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
+      <c r="A22" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B22" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C22" s="3">
+        <v>13</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="H22" s="3">
         <v>12</v>
       </c>
-      <c r="D21" s="12" t="s">
+      <c r="I22" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="F21" s="9" t="s">
+      <c r="K22" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="G21" s="10" t="s">
+      <c r="L22" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="H21" s="3">
-        <v>12</v>
-      </c>
-      <c r="I21" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="K21" s="4" t="s">
+      <c r="M22" s="3">
+        <v>11</v>
+      </c>
+      <c r="N22" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="P22" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="L21" s="18" t="s">
+      <c r="Q22" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="M21" s="3">
-        <v>11</v>
-      </c>
-      <c r="N21" s="19" t="s">
-        <v>150</v>
-      </c>
-      <c r="P21" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q21" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="R21" s="3">
+      <c r="R22" s="3">
         <v>9</v>
       </c>
-      <c r="S21" s="3" t="s">
+      <c r="S22" s="3" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="22" spans="1:19">
-      <c r="A22" s="13" t="s">
+    <row r="23" spans="1:19">
+      <c r="A23" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B23" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C23" s="3">
+        <v>6</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="F23" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H23" s="3">
         <v>5</v>
       </c>
-      <c r="D22" s="12" t="s">
+      <c r="I23" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="F22" s="13" t="s">
+      <c r="K23" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="G22" s="8" t="s">
+      <c r="L23" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="H22" s="3">
-        <v>5</v>
-      </c>
-      <c r="I22" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="K22" s="5" t="s">
+      <c r="M23" s="3">
+        <v>4</v>
+      </c>
+      <c r="N23" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="P23" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="L22" s="17" t="s">
+      <c r="Q23" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="M22" s="3">
+      <c r="R23" s="3">
+        <v>3</v>
+      </c>
+      <c r="S23" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
+      <c r="A24" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="3">
+        <v>2</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H24" s="3">
+        <v>2</v>
+      </c>
+      <c r="I24" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L24" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="M24" s="3">
+        <v>1</v>
+      </c>
+      <c r="N24" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="P24" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q24" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="R24" s="3">
+        <v>30</v>
+      </c>
+      <c r="S24" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
+      <c r="A25" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" s="3">
         <v>4</v>
       </c>
-      <c r="N22" s="19" t="s">
-        <v>148</v>
-      </c>
-      <c r="P22" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q22" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="R22" s="3">
+      <c r="D25" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="F25" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H25" s="3">
+        <v>4</v>
+      </c>
+      <c r="I25" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="K25" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="L25" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="M25" s="3">
         <v>3</v>
       </c>
-      <c r="S22" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19">
-      <c r="A23" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" s="3">
-        <v>2</v>
-      </c>
-      <c r="D23" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="G23" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="H23" s="3">
-        <v>2</v>
-      </c>
-      <c r="I23" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="K23" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L23" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="M23" s="3">
-        <v>1</v>
-      </c>
-      <c r="N23" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="P23" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q23" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="R23" s="3">
-        <v>30</v>
-      </c>
-      <c r="S23" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19">
-      <c r="A24" s="13" t="s">
+      <c r="N25" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="P25" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="Q25" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="C24" s="3">
-        <v>4</v>
-      </c>
-      <c r="D24" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="F24" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="G24" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="H24" s="3">
-        <v>4</v>
-      </c>
-      <c r="I24" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="K24" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="L24" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="M24" s="3">
-        <v>3</v>
-      </c>
-      <c r="N24" s="19" t="s">
-        <v>135</v>
-      </c>
-      <c r="P24" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q24" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="R24" s="3">
-        <v>1</v>
-      </c>
-      <c r="S24" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19">
-      <c r="A25" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B25" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C25" s="3">
-        <v>2</v>
-      </c>
-      <c r="D25" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="F25" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="G25" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="H25" s="3">
-        <v>2</v>
-      </c>
-      <c r="I25" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="K25" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="L25" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="M25" s="3">
-        <v>2</v>
-      </c>
-      <c r="N25" s="19" t="s">
-        <v>136</v>
-      </c>
-      <c r="P25" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q25" s="4" t="s">
-        <v>29</v>
       </c>
       <c r="R25" s="3">
         <v>1</v>
       </c>
       <c r="S25" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19">
+      <c r="A26" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" s="3">
+        <v>3</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G26" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="H26" s="3">
+        <v>2</v>
+      </c>
+      <c r="I26" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="K26" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L26" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="M26" s="3">
+        <v>2</v>
+      </c>
+      <c r="N26" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="P26" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q26" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="R26" s="3">
+        <v>1</v>
+      </c>
+      <c r="S26" s="3" t="s">
         <v>89</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19">
-      <c r="A26" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="C26" s="2">
-        <v>4</v>
-      </c>
-      <c r="D26" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="G26" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="H26" s="2">
-        <v>4</v>
-      </c>
-      <c r="I26" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="K26" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="L26" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="M26" s="2">
-        <v>4</v>
-      </c>
-      <c r="N26" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="P26" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q26" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="R26" s="2">
-        <v>3</v>
-      </c>
-      <c r="S26" s="2" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="27" spans="1:19">
       <c r="A27" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C27" s="2">
+        <v>5</v>
+      </c>
+      <c r="D27" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H27" s="2">
+        <v>4</v>
+      </c>
+      <c r="I27" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="L27" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="M27" s="2">
+        <v>4</v>
+      </c>
+      <c r="N27" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="P27" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q27" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="R27" s="2">
+        <v>3</v>
+      </c>
+      <c r="S27" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19">
+      <c r="A28" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="B28" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="C27" s="3">
+      <c r="C28" s="3">
+        <v>11</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="H28" s="3">
         <v>9</v>
       </c>
-      <c r="D27" s="12" t="s">
+      <c r="I28" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="K28" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="G27" s="8" t="s">
+      <c r="L28" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="H27" s="3">
-        <v>9</v>
-      </c>
-      <c r="I27" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="K27" s="1" t="s">
+      <c r="M28" s="3">
+        <v>8</v>
+      </c>
+      <c r="N28" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="P28" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="L27" s="17" t="s">
+      <c r="Q28" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="M27" s="3">
-        <v>8</v>
-      </c>
-      <c r="N27" s="19" t="s">
-        <v>147</v>
-      </c>
-      <c r="P27" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q27" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="R27" s="3">
+      <c r="R28" s="3">
         <v>7</v>
       </c>
-      <c r="S27" s="3" t="s">
+      <c r="S28" s="3" t="s">
         <v>76</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19">
-      <c r="A28" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C28" s="3">
-        <v>6</v>
-      </c>
-      <c r="D28" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="F28" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G28" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="H28" s="3">
-        <v>6</v>
-      </c>
-      <c r="I28" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="K28" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="L28" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="M28" s="3">
-        <v>5</v>
-      </c>
-      <c r="N28" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="P28" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q28" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="R28" s="3">
-        <v>1</v>
-      </c>
-      <c r="S28" s="3" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="29" spans="1:19">
       <c r="A29" s="9" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C29" s="6">
+        <v>15</v>
+      </c>
+      <c r="C29" s="3">
+        <v>7</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G29" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="H29" s="3">
+        <v>6</v>
+      </c>
+      <c r="I29" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="K29" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L29" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="M29" s="3">
+        <v>5</v>
+      </c>
+      <c r="N29" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="P29" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q29" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="R29" s="3">
         <v>1</v>
       </c>
-      <c r="D29" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="F29" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="G29" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="H29" s="6">
-        <v>1</v>
-      </c>
-      <c r="I29" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="K29" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="L29" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="M29" s="6">
-        <v>30</v>
-      </c>
-      <c r="N29" s="20" t="s">
-        <v>129</v>
-      </c>
-      <c r="P29" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q29" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="R29" s="6">
-        <v>30</v>
-      </c>
-      <c r="S29" s="20" t="s">
-        <v>95</v>
+      <c r="S29" s="3" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="30" spans="1:19">
       <c r="A30" s="9" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="C30" s="3">
-        <v>6</v>
-      </c>
-      <c r="D30" s="11" t="s">
-        <v>115</v>
+        <v>31</v>
+      </c>
+      <c r="C30" s="6">
+        <v>2</v>
+      </c>
+      <c r="D30" s="24" t="s">
+        <v>73</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="G30" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="H30" s="3">
-        <v>6</v>
-      </c>
-      <c r="I30" s="11" t="s">
-        <v>115</v>
+        <v>31</v>
+      </c>
+      <c r="H30" s="6">
+        <v>1</v>
+      </c>
+      <c r="I30" s="14" t="s">
+        <v>103</v>
       </c>
       <c r="K30" s="4" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="L30" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="M30" s="3">
-        <v>4</v>
-      </c>
-      <c r="N30" s="19" t="s">
-        <v>143</v>
+        <v>31</v>
+      </c>
+      <c r="M30" s="6">
+        <v>30</v>
+      </c>
+      <c r="N30" s="20" t="s">
+        <v>129</v>
       </c>
       <c r="P30" s="4" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="Q30" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="R30" s="3">
-        <v>1</v>
-      </c>
-      <c r="S30" s="3" t="s">
-        <v>73</v>
+        <v>31</v>
+      </c>
+      <c r="R30" s="6">
+        <v>30</v>
+      </c>
+      <c r="S30" s="20" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="31" spans="1:19">
       <c r="A31" s="9" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="C31" s="3">
+        <v>8</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="G31" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" s="3">
+        <v>6</v>
+      </c>
+      <c r="I31" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="K31" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="L31" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="M31" s="3">
         <v>4</v>
       </c>
-      <c r="D31" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="F31" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="G31" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="H31" s="3">
-        <v>4</v>
-      </c>
-      <c r="I31" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="K31" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="L31" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="M31" s="3">
-        <v>3</v>
-      </c>
       <c r="N31" s="19" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="P31" s="4" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="Q31" s="4" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="R31" s="3">
         <v>1</v>
       </c>
       <c r="S31" s="3" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
     </row>
     <row r="32" spans="1:19">
       <c r="A32" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C32" s="3">
+        <v>5</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G32" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="H32" s="3">
+        <v>4</v>
+      </c>
+      <c r="I32" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="K32" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="L32" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="M32" s="3">
+        <v>3</v>
+      </c>
+      <c r="N32" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="P32" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q32" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="R32" s="3">
+        <v>1</v>
+      </c>
+      <c r="S32" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19">
+      <c r="A33" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="B32" s="10" t="s">
+      <c r="B33" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="C32" s="3">
-        <v>6</v>
-      </c>
-      <c r="D32" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="F32" s="9" t="s">
+      <c r="C33" s="3">
+        <v>7</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="F33" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="G32" s="10" t="s">
+      <c r="G33" s="10" t="s">
         <v>58</v>
-      </c>
-      <c r="H32" s="3">
-        <v>6</v>
-      </c>
-      <c r="I32" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="K32" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="L32" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="M32" s="3">
-        <v>5</v>
-      </c>
-      <c r="N32" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="P32" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q32" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="R32" s="3">
-        <v>5</v>
-      </c>
-      <c r="S32" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="33" spans="1:19">
-      <c r="A33" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C33" s="3">
-        <v>6</v>
-      </c>
-      <c r="D33" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="G33" s="8" t="s">
-        <v>50</v>
       </c>
       <c r="H33" s="3">
         <v>6</v>
       </c>
       <c r="I33" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="K33" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="L33" s="17" t="s">
-        <v>50</v>
+        <v>119</v>
+      </c>
+      <c r="K33" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="L33" s="18" t="s">
+        <v>58</v>
       </c>
       <c r="M33" s="3">
         <v>5</v>
       </c>
       <c r="N33" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="P33" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q33" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="R33" s="3">
+        <v>5</v>
+      </c>
+      <c r="S33" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19">
+      <c r="A34" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C34" s="3">
+        <v>7</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G34" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="H34" s="3">
+        <v>6</v>
+      </c>
+      <c r="I34" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="L34" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="M34" s="3">
+        <v>5</v>
+      </c>
+      <c r="N34" s="19" t="s">
         <v>145</v>
       </c>
-      <c r="P33" s="1" t="s">
+      <c r="P34" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="Q33" s="1" t="s">
+      <c r="Q34" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="R33" s="3">
+      <c r="R34" s="3">
         <v>4</v>
       </c>
-      <c r="S33" s="3" t="s">
+      <c r="S34" s="3" t="s">
         <v>86</v>
-      </c>
-    </row>
-    <row r="34" spans="1:19">
-      <c r="A34" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="B34" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="C34" s="3">
-        <v>9</v>
-      </c>
-      <c r="D34" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="F34" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="G34" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="H34" s="3">
-        <v>9</v>
-      </c>
-      <c r="I34" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="K34" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="L34" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="M34" s="3">
-        <v>8</v>
-      </c>
-      <c r="N34" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="P34" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q34" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="R34" s="3">
-        <v>8</v>
-      </c>
-      <c r="S34" s="3" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="35" spans="1:19">
       <c r="A35" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C35" s="3">
+        <v>10</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="F35" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="G35" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="H35" s="3">
+        <v>9</v>
+      </c>
+      <c r="I35" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="K35" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="L35" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="M35" s="3">
+        <v>8</v>
+      </c>
+      <c r="N35" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="P35" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q35" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="R35" s="3">
+        <v>8</v>
+      </c>
+      <c r="S35" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19">
+      <c r="A36" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B35" s="10" t="s">
+      <c r="B36" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C35" s="3">
+      <c r="C36" s="3">
+        <v>3</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="F36" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G36" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H36" s="3">
         <v>2</v>
       </c>
-      <c r="D35" s="11" t="s">
+      <c r="I36" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="F35" s="9" t="s">
+      <c r="K36" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G35" s="10" t="s">
+      <c r="L36" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="H35" s="3">
-        <v>2</v>
-      </c>
-      <c r="I35" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="K35" s="4" t="s">
+      <c r="M36" s="3">
+        <v>1</v>
+      </c>
+      <c r="N36" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="P36" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L35" s="18" t="s">
+      <c r="Q36" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="M35" s="3">
+      <c r="R36" s="3">
         <v>1</v>
       </c>
-      <c r="N35" s="19" t="s">
-        <v>133</v>
-      </c>
-      <c r="P35" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q35" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="R35" s="3">
-        <v>1</v>
-      </c>
-      <c r="S35" s="3" t="s">
+      <c r="S36" s="3" t="s">
         <v>74</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A1:S36">
+  <sortState ref="A2:D36">
     <sortCondition ref="A2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/laporan/data.xlsx
+++ b/laporan/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19950" windowHeight="8310" activeTab="1"/>
+    <workbookView windowWidth="18945" windowHeight="8310" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="7" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="187">
   <si>
     <t>nama</t>
   </si>
@@ -583,12 +583,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -603,18 +603,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -638,11 +626,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -651,13 +638,6 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -677,9 +657,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -700,15 +715,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -722,13 +746,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -736,37 +753,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -775,7 +763,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -787,37 +877,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -829,7 +919,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -841,91 +931,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -937,25 +943,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1032,17 +1026,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1081,155 +1064,166 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1255,6 +1249,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1269,28 +1266,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
@@ -1639,52 +1614,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="11" t="s">
+      <c r="B1" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="11" t="s">
+      <c r="D1" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" s="11" t="s">
+      <c r="G1" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="K1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="M1" s="11" t="s">
+      <c r="L1" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="N1" s="11" t="s">
+      <c r="N1" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="P1" s="11" t="s">
+      <c r="P1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="Q1" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="R1" s="11" t="s">
+      <c r="Q1" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="R1" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="S1" s="11" t="s">
+      <c r="S1" s="14" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1692,43 +1667,43 @@
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="15" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="2">
         <v>11</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="16" t="s">
         <v>12</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="15" t="s">
         <v>11</v>
       </c>
       <c r="H2" s="2">
         <v>10</v>
       </c>
-      <c r="I2" s="13" t="s">
+      <c r="I2" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="K2" s="17" t="s">
+      <c r="K2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="18" t="s">
+      <c r="L2" s="15" t="s">
         <v>11</v>
       </c>
       <c r="M2" s="2">
         <v>10</v>
       </c>
-      <c r="N2" s="22" t="s">
+      <c r="N2" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="P2" s="17" t="s">
+      <c r="P2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" s="17" t="s">
+      <c r="Q2" s="1" t="s">
         <v>11</v>
       </c>
       <c r="R2" s="2">
@@ -1742,7 +1717,7 @@
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="15" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="2">
@@ -1754,7 +1729,7 @@
       <c r="F3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="15" t="s">
         <v>17</v>
       </c>
       <c r="H3" s="2">
@@ -1763,10 +1738,10 @@
       <c r="I3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K3" s="17" t="s">
+      <c r="K3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L3" s="18" t="s">
+      <c r="L3" s="15" t="s">
         <v>17</v>
       </c>
       <c r="M3" s="2">
@@ -1775,10 +1750,10 @@
       <c r="N3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="P3" s="17" t="s">
+      <c r="P3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="Q3" s="17" t="s">
+      <c r="Q3" s="1" t="s">
         <v>17</v>
       </c>
       <c r="R3" s="2">
@@ -1792,49 +1767,49 @@
       <c r="A4" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="17" t="s">
         <v>23</v>
       </c>
       <c r="C4" s="2">
         <v>3</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="16" t="s">
         <v>24</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="G4" s="17" t="s">
         <v>23</v>
       </c>
       <c r="H4" s="2">
         <v>3</v>
       </c>
-      <c r="I4" s="13" t="s">
+      <c r="I4" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="K4" s="19" t="s">
+      <c r="K4" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="L4" s="20" t="s">
+      <c r="L4" s="17" t="s">
         <v>23</v>
       </c>
       <c r="M4" s="2">
         <v>1</v>
       </c>
-      <c r="N4" s="22" t="s">
+      <c r="N4" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="P4" s="19" t="s">
+      <c r="P4" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="Q4" s="19" t="s">
+      <c r="Q4" s="5" t="s">
         <v>23</v>
       </c>
       <c r="R4" s="2">
         <v>30</v>
       </c>
-      <c r="S4" s="22" t="s">
+      <c r="S4" s="16" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1842,43 +1817,43 @@
       <c r="A5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="15" t="s">
         <v>29</v>
       </c>
       <c r="C5" s="9">
         <v>8</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="18" t="s">
         <v>30</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="12" t="s">
+      <c r="G5" s="15" t="s">
         <v>29</v>
       </c>
       <c r="H5" s="9">
         <v>7</v>
       </c>
-      <c r="I5" s="15" t="s">
+      <c r="I5" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="K5" s="17" t="s">
+      <c r="K5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="L5" s="18" t="s">
+      <c r="L5" s="15" t="s">
         <v>29</v>
       </c>
       <c r="M5" s="9">
         <v>7</v>
       </c>
-      <c r="N5" s="23" t="s">
+      <c r="N5" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="P5" s="17" t="s">
+      <c r="P5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="Q5" s="17" t="s">
+      <c r="Q5" s="1" t="s">
         <v>29</v>
       </c>
       <c r="R5" s="2">
@@ -1892,43 +1867,43 @@
       <c r="A6" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="17" t="s">
         <v>35</v>
       </c>
       <c r="C6" s="2">
         <v>1</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="16" t="s">
         <v>36</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="G6" s="14" t="s">
+      <c r="G6" s="17" t="s">
         <v>35</v>
       </c>
       <c r="H6" s="2">
         <v>30</v>
       </c>
-      <c r="I6" s="13" t="s">
+      <c r="I6" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="K6" s="19" t="s">
+      <c r="K6" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="L6" s="20" t="s">
+      <c r="L6" s="17" t="s">
         <v>35</v>
       </c>
       <c r="M6" s="2">
         <v>30</v>
       </c>
-      <c r="N6" s="22" t="s">
+      <c r="N6" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="P6" s="19" t="s">
+      <c r="P6" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="Q6" s="19" t="s">
+      <c r="Q6" s="5" t="s">
         <v>35</v>
       </c>
       <c r="R6" s="2">
@@ -1942,43 +1917,43 @@
       <c r="A7" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="15" t="s">
         <v>41</v>
       </c>
       <c r="C7" s="2">
         <v>2</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="16" t="s">
         <v>42</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G7" s="12" t="s">
+      <c r="G7" s="15" t="s">
         <v>41</v>
       </c>
       <c r="H7" s="2">
         <v>1</v>
       </c>
-      <c r="I7" s="13" t="s">
+      <c r="I7" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="K7" s="17" t="s">
+      <c r="K7" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="L7" s="18" t="s">
+      <c r="L7" s="15" t="s">
         <v>41</v>
       </c>
       <c r="M7" s="2">
         <v>30</v>
       </c>
-      <c r="N7" s="22" t="s">
+      <c r="N7" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="P7" s="17" t="s">
+      <c r="P7" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Q7" s="17" t="s">
+      <c r="Q7" s="1" t="s">
         <v>41</v>
       </c>
       <c r="R7" s="2">
@@ -1992,49 +1967,49 @@
       <c r="A8" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="15" t="s">
         <v>46</v>
       </c>
       <c r="C8" s="2">
         <v>7</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="16" t="s">
         <v>47</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G8" s="12" t="s">
+      <c r="G8" s="15" t="s">
         <v>46</v>
       </c>
       <c r="H8" s="2">
         <v>5</v>
       </c>
-      <c r="I8" s="13" t="s">
+      <c r="I8" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="K8" s="17" t="s">
+      <c r="K8" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="L8" s="18" t="s">
+      <c r="L8" s="15" t="s">
         <v>46</v>
       </c>
       <c r="M8" s="2">
         <v>4</v>
       </c>
-      <c r="N8" s="22" t="s">
+      <c r="N8" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="P8" s="17" t="s">
+      <c r="P8" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="Q8" s="17" t="s">
+      <c r="Q8" s="1" t="s">
         <v>46</v>
       </c>
       <c r="R8" s="2">
         <v>1</v>
       </c>
-      <c r="S8" s="22" t="s">
+      <c r="S8" s="16" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2042,43 +2017,43 @@
       <c r="A9" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="17" t="s">
         <v>52</v>
       </c>
       <c r="C9" s="2">
         <v>4</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="16" t="s">
         <v>53</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="G9" s="14" t="s">
+      <c r="G9" s="17" t="s">
         <v>52</v>
       </c>
       <c r="H9" s="2">
         <v>3</v>
       </c>
-      <c r="I9" s="13" t="s">
+      <c r="I9" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="K9" s="19" t="s">
+      <c r="K9" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="L9" s="20" t="s">
+      <c r="L9" s="17" t="s">
         <v>52</v>
       </c>
       <c r="M9" s="2">
         <v>3</v>
       </c>
-      <c r="N9" s="22" t="s">
+      <c r="N9" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="P9" s="19" t="s">
+      <c r="P9" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="Q9" s="19" t="s">
+      <c r="Q9" s="5" t="s">
         <v>52</v>
       </c>
       <c r="R9" s="2">
@@ -2092,43 +2067,43 @@
       <c r="A10" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="15" t="s">
         <v>57</v>
       </c>
       <c r="C10" s="9">
         <v>8</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="D10" s="18" t="s">
         <v>58</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="G10" s="12" t="s">
+      <c r="G10" s="15" t="s">
         <v>57</v>
       </c>
       <c r="H10" s="9">
         <v>7</v>
       </c>
-      <c r="I10" s="15" t="s">
+      <c r="I10" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="K10" s="21" t="s">
+      <c r="K10" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="L10" s="18" t="s">
+      <c r="L10" s="15" t="s">
         <v>57</v>
       </c>
       <c r="M10" s="9">
         <v>7</v>
       </c>
-      <c r="N10" s="23" t="s">
+      <c r="N10" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="P10" s="21" t="s">
+      <c r="P10" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="Q10" s="17" t="s">
+      <c r="Q10" s="1" t="s">
         <v>57</v>
       </c>
       <c r="R10" s="9">
@@ -2142,43 +2117,43 @@
       <c r="A11" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="17" t="s">
         <v>61</v>
       </c>
       <c r="C11" s="2">
         <v>11</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="16" t="s">
         <v>62</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="G11" s="14" t="s">
+      <c r="G11" s="17" t="s">
         <v>61</v>
       </c>
       <c r="H11" s="2">
         <v>10</v>
       </c>
-      <c r="I11" s="13" t="s">
+      <c r="I11" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="K11" s="19" t="s">
+      <c r="K11" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="L11" s="20" t="s">
+      <c r="L11" s="17" t="s">
         <v>61</v>
       </c>
       <c r="M11" s="2">
         <v>9</v>
       </c>
-      <c r="N11" s="22" t="s">
+      <c r="N11" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="P11" s="19" t="s">
+      <c r="P11" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="Q11" s="19" t="s">
+      <c r="Q11" s="5" t="s">
         <v>61</v>
       </c>
       <c r="R11" s="2">
@@ -2192,49 +2167,49 @@
       <c r="A12" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="15" t="s">
         <v>67</v>
       </c>
       <c r="C12" s="2">
         <v>4</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="16" t="s">
         <v>68</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="G12" s="12" t="s">
+      <c r="G12" s="15" t="s">
         <v>67</v>
       </c>
       <c r="H12" s="2">
         <v>3</v>
       </c>
-      <c r="I12" s="13" t="s">
+      <c r="I12" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="K12" s="17" t="s">
+      <c r="K12" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="L12" s="18" t="s">
+      <c r="L12" s="15" t="s">
         <v>67</v>
       </c>
       <c r="M12" s="2">
         <v>2</v>
       </c>
-      <c r="N12" s="22" t="s">
+      <c r="N12" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="P12" s="17" t="s">
+      <c r="P12" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="Q12" s="17" t="s">
+      <c r="Q12" s="1" t="s">
         <v>67</v>
       </c>
       <c r="R12" s="2">
         <v>30</v>
       </c>
-      <c r="S12" s="22" t="s">
+      <c r="S12" s="16" t="s">
         <v>71</v>
       </c>
     </row>
@@ -2242,43 +2217,43 @@
       <c r="A13" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="17" t="s">
         <v>73</v>
       </c>
       <c r="C13" s="2">
         <v>8</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D13" s="16" t="s">
         <v>74</v>
       </c>
       <c r="F13" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="G13" s="14" t="s">
+      <c r="G13" s="17" t="s">
         <v>73</v>
       </c>
       <c r="H13" s="2">
         <v>7</v>
       </c>
-      <c r="I13" s="13" t="s">
+      <c r="I13" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="K13" s="19" t="s">
+      <c r="K13" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="L13" s="20" t="s">
+      <c r="L13" s="17" t="s">
         <v>73</v>
       </c>
       <c r="M13" s="2">
         <v>6</v>
       </c>
-      <c r="N13" s="22" t="s">
+      <c r="N13" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="P13" s="19" t="s">
+      <c r="P13" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="Q13" s="19" t="s">
+      <c r="Q13" s="5" t="s">
         <v>73</v>
       </c>
       <c r="R13" s="2">
@@ -2292,49 +2267,49 @@
       <c r="A14" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="B14" s="25" t="s">
+      <c r="B14" s="20" t="s">
         <v>78</v>
       </c>
       <c r="C14" s="6">
         <v>1</v>
       </c>
-      <c r="D14" s="16" t="s">
+      <c r="D14" s="19" t="s">
         <v>79</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="G14" s="25" t="s">
+      <c r="G14" s="20" t="s">
         <v>78</v>
       </c>
       <c r="H14" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="I14" s="16" t="s">
+      <c r="I14" s="19" t="s">
         <v>78</v>
       </c>
       <c r="K14" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="L14" s="25" t="s">
+      <c r="L14" s="20" t="s">
         <v>78</v>
       </c>
       <c r="M14" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="N14" s="16" t="s">
+      <c r="N14" s="19" t="s">
         <v>78</v>
       </c>
       <c r="P14" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="Q14" s="25" t="s">
+      <c r="Q14" s="20" t="s">
         <v>78</v>
       </c>
       <c r="R14" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="S14" s="16" t="s">
+      <c r="S14" s="19" t="s">
         <v>78</v>
       </c>
     </row>
@@ -2342,43 +2317,43 @@
       <c r="A15" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="17" t="s">
         <v>81</v>
       </c>
       <c r="C15" s="2">
         <v>4</v>
       </c>
-      <c r="D15" s="13" t="s">
+      <c r="D15" s="16" t="s">
         <v>82</v>
       </c>
       <c r="F15" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="G15" s="14" t="s">
+      <c r="G15" s="17" t="s">
         <v>81</v>
       </c>
       <c r="H15" s="2">
         <v>3</v>
       </c>
-      <c r="I15" s="13" t="s">
+      <c r="I15" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="K15" s="19" t="s">
+      <c r="K15" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="L15" s="20" t="s">
+      <c r="L15" s="17" t="s">
         <v>81</v>
       </c>
       <c r="M15" s="2">
         <v>2</v>
       </c>
-      <c r="N15" s="22" t="s">
+      <c r="N15" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="P15" s="19" t="s">
+      <c r="P15" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="Q15" s="19" t="s">
+      <c r="Q15" s="5" t="s">
         <v>81</v>
       </c>
       <c r="R15" s="2">
@@ -2392,43 +2367,43 @@
       <c r="A16" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="15" t="s">
         <v>87</v>
       </c>
       <c r="C16" s="2">
         <v>11</v>
       </c>
-      <c r="D16" s="13" t="s">
+      <c r="D16" s="16" t="s">
         <v>88</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="G16" s="12" t="s">
+      <c r="G16" s="15" t="s">
         <v>87</v>
       </c>
       <c r="H16" s="2">
         <v>10</v>
       </c>
-      <c r="I16" s="13" t="s">
+      <c r="I16" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="K16" s="17" t="s">
+      <c r="K16" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="L16" s="18" t="s">
+      <c r="L16" s="15" t="s">
         <v>87</v>
       </c>
       <c r="M16" s="2">
         <v>9</v>
       </c>
-      <c r="N16" s="22" t="s">
+      <c r="N16" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="P16" s="17" t="s">
+      <c r="P16" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="Q16" s="17" t="s">
+      <c r="Q16" s="1" t="s">
         <v>87</v>
       </c>
       <c r="R16" s="2">
@@ -2442,43 +2417,43 @@
       <c r="A17" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="17" t="s">
         <v>93</v>
       </c>
       <c r="C17" s="2">
         <v>1</v>
       </c>
-      <c r="D17" s="13" t="s">
+      <c r="D17" s="16" t="s">
         <v>94</v>
       </c>
       <c r="F17" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="G17" s="14" t="s">
+      <c r="G17" s="17" t="s">
         <v>93</v>
       </c>
       <c r="H17" s="2">
         <v>1</v>
       </c>
-      <c r="I17" s="13" t="s">
+      <c r="I17" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="K17" s="19" t="s">
+      <c r="K17" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="L17" s="20" t="s">
+      <c r="L17" s="17" t="s">
         <v>93</v>
       </c>
       <c r="M17" s="2">
         <v>1</v>
       </c>
-      <c r="N17" s="22" t="s">
+      <c r="N17" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="P17" s="19" t="s">
+      <c r="P17" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="Q17" s="19" t="s">
+      <c r="Q17" s="5" t="s">
         <v>93</v>
       </c>
       <c r="R17" s="2">
@@ -2492,43 +2467,43 @@
       <c r="A18" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="17" t="s">
         <v>99</v>
       </c>
       <c r="C18" s="2">
         <v>2</v>
       </c>
-      <c r="D18" s="13" t="s">
+      <c r="D18" s="16" t="s">
         <v>55</v>
       </c>
       <c r="F18" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="G18" s="14" t="s">
+      <c r="G18" s="17" t="s">
         <v>99</v>
       </c>
       <c r="H18" s="2">
         <v>1</v>
       </c>
-      <c r="I18" s="13" t="s">
+      <c r="I18" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="K18" s="19" t="s">
+      <c r="K18" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="L18" s="20" t="s">
+      <c r="L18" s="17" t="s">
         <v>99</v>
       </c>
       <c r="M18" s="2">
         <v>1</v>
       </c>
-      <c r="N18" s="22" t="s">
+      <c r="N18" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="P18" s="19" t="s">
+      <c r="P18" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="Q18" s="19" t="s">
+      <c r="Q18" s="5" t="s">
         <v>99</v>
       </c>
       <c r="R18" s="2">
@@ -2542,43 +2517,43 @@
       <c r="A19" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="17" t="s">
         <v>103</v>
       </c>
       <c r="C19" s="2">
         <v>1</v>
       </c>
-      <c r="D19" s="13" t="s">
+      <c r="D19" s="16" t="s">
         <v>101</v>
       </c>
       <c r="F19" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="G19" s="14" t="s">
+      <c r="G19" s="17" t="s">
         <v>103</v>
       </c>
       <c r="H19" s="2">
         <v>1</v>
       </c>
-      <c r="I19" s="13" t="s">
+      <c r="I19" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="K19" s="19" t="s">
+      <c r="K19" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="L19" s="20" t="s">
+      <c r="L19" s="17" t="s">
         <v>103</v>
       </c>
       <c r="M19" s="2">
         <v>30</v>
       </c>
-      <c r="N19" s="22" t="s">
+      <c r="N19" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="P19" s="19" t="s">
+      <c r="P19" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="Q19" s="19" t="s">
+      <c r="Q19" s="5" t="s">
         <v>103</v>
       </c>
       <c r="R19" s="2">
@@ -2592,43 +2567,43 @@
       <c r="A20" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="17" t="s">
         <v>106</v>
       </c>
       <c r="C20" s="2">
         <v>14</v>
       </c>
-      <c r="D20" s="13" t="s">
+      <c r="D20" s="16" t="s">
         <v>107</v>
       </c>
       <c r="F20" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="G20" s="14" t="s">
+      <c r="G20" s="17" t="s">
         <v>106</v>
       </c>
       <c r="H20" s="2">
         <v>13</v>
       </c>
-      <c r="I20" s="13" t="s">
+      <c r="I20" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="K20" s="19" t="s">
+      <c r="K20" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="L20" s="20" t="s">
+      <c r="L20" s="17" t="s">
         <v>106</v>
       </c>
       <c r="M20" s="2">
         <v>11</v>
       </c>
-      <c r="N20" s="22" t="s">
+      <c r="N20" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="P20" s="19" t="s">
+      <c r="P20" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="Q20" s="19" t="s">
+      <c r="Q20" s="5" t="s">
         <v>106</v>
       </c>
       <c r="R20" s="2">
@@ -2642,43 +2617,43 @@
       <c r="A21" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="B21" s="14" t="s">
+      <c r="B21" s="17" t="s">
         <v>112</v>
       </c>
       <c r="C21" s="2">
         <v>7</v>
       </c>
-      <c r="D21" s="13" t="s">
+      <c r="D21" s="16" t="s">
         <v>113</v>
       </c>
       <c r="F21" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="G21" s="14" t="s">
+      <c r="G21" s="17" t="s">
         <v>112</v>
       </c>
       <c r="H21" s="2">
         <v>6</v>
       </c>
-      <c r="I21" s="13" t="s">
+      <c r="I21" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="K21" s="19" t="s">
+      <c r="K21" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="L21" s="20" t="s">
+      <c r="L21" s="17" t="s">
         <v>112</v>
       </c>
       <c r="M21" s="2">
         <v>5</v>
       </c>
-      <c r="N21" s="22" t="s">
+      <c r="N21" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="P21" s="19" t="s">
+      <c r="P21" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="Q21" s="19" t="s">
+      <c r="Q21" s="5" t="s">
         <v>112</v>
       </c>
       <c r="R21" s="2">
@@ -2692,43 +2667,43 @@
       <c r="A22" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="B22" s="14" t="s">
+      <c r="B22" s="17" t="s">
         <v>118</v>
       </c>
       <c r="C22" s="2">
         <v>13</v>
       </c>
-      <c r="D22" s="13" t="s">
+      <c r="D22" s="16" t="s">
         <v>119</v>
       </c>
       <c r="F22" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="G22" s="14" t="s">
+      <c r="G22" s="17" t="s">
         <v>118</v>
       </c>
       <c r="H22" s="2">
         <v>12</v>
       </c>
-      <c r="I22" s="13" t="s">
+      <c r="I22" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="K22" s="19" t="s">
+      <c r="K22" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="L22" s="20" t="s">
+      <c r="L22" s="17" t="s">
         <v>118</v>
       </c>
       <c r="M22" s="2">
         <v>11</v>
       </c>
-      <c r="N22" s="22" t="s">
+      <c r="N22" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="P22" s="19" t="s">
+      <c r="P22" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="Q22" s="19" t="s">
+      <c r="Q22" s="5" t="s">
         <v>118</v>
       </c>
       <c r="R22" s="2">
@@ -2742,43 +2717,43 @@
       <c r="A23" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="B23" s="12" t="s">
+      <c r="B23" s="15" t="s">
         <v>123</v>
       </c>
       <c r="C23" s="2">
         <v>6</v>
       </c>
-      <c r="D23" s="13" t="s">
+      <c r="D23" s="16" t="s">
         <v>124</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="G23" s="12" t="s">
+      <c r="G23" s="15" t="s">
         <v>123</v>
       </c>
       <c r="H23" s="2">
         <v>5</v>
       </c>
-      <c r="I23" s="13" t="s">
+      <c r="I23" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="K23" s="21" t="s">
+      <c r="K23" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="L23" s="18" t="s">
+      <c r="L23" s="15" t="s">
         <v>123</v>
       </c>
       <c r="M23" s="2">
         <v>4</v>
       </c>
-      <c r="N23" s="22" t="s">
+      <c r="N23" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="P23" s="21" t="s">
+      <c r="P23" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="Q23" s="17" t="s">
+      <c r="Q23" s="1" t="s">
         <v>123</v>
       </c>
       <c r="R23" s="2">
@@ -2792,43 +2767,43 @@
       <c r="A24" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B24" s="12" t="s">
+      <c r="B24" s="15" t="s">
         <v>128</v>
       </c>
       <c r="C24" s="2">
         <v>2</v>
       </c>
-      <c r="D24" s="13" t="s">
+      <c r="D24" s="16" t="s">
         <v>70</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="G24" s="12" t="s">
+      <c r="G24" s="15" t="s">
         <v>128</v>
       </c>
       <c r="H24" s="2">
         <v>2</v>
       </c>
-      <c r="I24" s="13" t="s">
+      <c r="I24" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="K24" s="17" t="s">
+      <c r="K24" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="L24" s="18" t="s">
+      <c r="L24" s="15" t="s">
         <v>128</v>
       </c>
       <c r="M24" s="2">
         <v>1</v>
       </c>
-      <c r="N24" s="22" t="s">
+      <c r="N24" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="P24" s="17" t="s">
+      <c r="P24" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="Q24" s="17" t="s">
+      <c r="Q24" s="1" t="s">
         <v>128</v>
       </c>
       <c r="R24" s="2">
@@ -2842,43 +2817,43 @@
       <c r="A25" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="B25" s="12" t="s">
+      <c r="B25" s="15" t="s">
         <v>132</v>
       </c>
       <c r="C25" s="2">
         <v>4</v>
       </c>
-      <c r="D25" s="13" t="s">
+      <c r="D25" s="16" t="s">
         <v>133</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="G25" s="12" t="s">
+      <c r="G25" s="15" t="s">
         <v>132</v>
       </c>
       <c r="H25" s="2">
         <v>4</v>
       </c>
-      <c r="I25" s="13" t="s">
+      <c r="I25" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="K25" s="21" t="s">
+      <c r="K25" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="L25" s="18" t="s">
+      <c r="L25" s="15" t="s">
         <v>132</v>
       </c>
       <c r="M25" s="2">
         <v>3</v>
       </c>
-      <c r="N25" s="22" t="s">
+      <c r="N25" s="16" t="s">
         <v>134</v>
       </c>
-      <c r="P25" s="21" t="s">
+      <c r="P25" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="Q25" s="17" t="s">
+      <c r="Q25" s="1" t="s">
         <v>132</v>
       </c>
       <c r="R25" s="2">
@@ -2892,43 +2867,43 @@
       <c r="A26" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="B26" s="14" t="s">
+      <c r="B26" s="17" t="s">
         <v>136</v>
       </c>
       <c r="C26" s="2">
         <v>3</v>
       </c>
-      <c r="D26" s="13" t="s">
+      <c r="D26" s="16" t="s">
         <v>137</v>
       </c>
       <c r="F26" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="G26" s="14" t="s">
+      <c r="G26" s="17" t="s">
         <v>136</v>
       </c>
       <c r="H26" s="2">
         <v>2</v>
       </c>
-      <c r="I26" s="13" t="s">
+      <c r="I26" s="16" t="s">
         <v>138</v>
       </c>
-      <c r="K26" s="19" t="s">
+      <c r="K26" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="L26" s="20" t="s">
+      <c r="L26" s="17" t="s">
         <v>136</v>
       </c>
       <c r="M26" s="2">
         <v>2</v>
       </c>
-      <c r="N26" s="22" t="s">
+      <c r="N26" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="P26" s="19" t="s">
+      <c r="P26" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="Q26" s="19" t="s">
+      <c r="Q26" s="5" t="s">
         <v>136</v>
       </c>
       <c r="R26" s="2">
@@ -2942,43 +2917,43 @@
       <c r="A27" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B27" s="12" t="s">
+      <c r="B27" s="15" t="s">
         <v>141</v>
       </c>
       <c r="C27" s="9">
         <v>5</v>
       </c>
-      <c r="D27" s="15" t="s">
+      <c r="D27" s="18" t="s">
         <v>142</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="G27" s="12" t="s">
+      <c r="G27" s="15" t="s">
         <v>141</v>
       </c>
       <c r="H27" s="9">
         <v>4</v>
       </c>
-      <c r="I27" s="15" t="s">
+      <c r="I27" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="K27" s="17" t="s">
+      <c r="K27" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="L27" s="18" t="s">
+      <c r="L27" s="15" t="s">
         <v>141</v>
       </c>
       <c r="M27" s="9">
         <v>4</v>
       </c>
-      <c r="N27" s="23" t="s">
+      <c r="N27" s="18" t="s">
         <v>144</v>
       </c>
-      <c r="P27" s="17" t="s">
+      <c r="P27" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="Q27" s="17" t="s">
+      <c r="Q27" s="1" t="s">
         <v>141</v>
       </c>
       <c r="R27" s="9">
@@ -2992,43 +2967,43 @@
       <c r="A28" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B28" s="12" t="s">
+      <c r="B28" s="15" t="s">
         <v>147</v>
       </c>
       <c r="C28" s="2">
         <v>11</v>
       </c>
-      <c r="D28" s="13" t="s">
+      <c r="D28" s="16" t="s">
         <v>148</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="G28" s="12" t="s">
+      <c r="G28" s="15" t="s">
         <v>147</v>
       </c>
       <c r="H28" s="2">
         <v>9</v>
       </c>
-      <c r="I28" s="13" t="s">
+      <c r="I28" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="K28" s="17" t="s">
+      <c r="K28" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="L28" s="18" t="s">
+      <c r="L28" s="15" t="s">
         <v>147</v>
       </c>
       <c r="M28" s="2">
         <v>8</v>
       </c>
-      <c r="N28" s="22" t="s">
+      <c r="N28" s="16" t="s">
         <v>149</v>
       </c>
-      <c r="P28" s="17" t="s">
+      <c r="P28" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="Q28" s="17" t="s">
+      <c r="Q28" s="1" t="s">
         <v>147</v>
       </c>
       <c r="R28" s="2">
@@ -3042,43 +3017,43 @@
       <c r="A29" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="B29" s="14" t="s">
+      <c r="B29" s="17" t="s">
         <v>152</v>
       </c>
       <c r="C29" s="2">
         <v>7</v>
       </c>
-      <c r="D29" s="13" t="s">
+      <c r="D29" s="16" t="s">
         <v>31</v>
       </c>
       <c r="F29" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="G29" s="14" t="s">
+      <c r="G29" s="17" t="s">
         <v>152</v>
       </c>
       <c r="H29" s="2">
         <v>6</v>
       </c>
-      <c r="I29" s="13" t="s">
+      <c r="I29" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="K29" s="19" t="s">
+      <c r="K29" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="L29" s="20" t="s">
+      <c r="L29" s="17" t="s">
         <v>152</v>
       </c>
       <c r="M29" s="2">
         <v>5</v>
       </c>
-      <c r="N29" s="22" t="s">
+      <c r="N29" s="16" t="s">
         <v>153</v>
       </c>
-      <c r="P29" s="19" t="s">
+      <c r="P29" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="Q29" s="19" t="s">
+      <c r="Q29" s="5" t="s">
         <v>152</v>
       </c>
       <c r="R29" s="2">
@@ -3092,49 +3067,49 @@
       <c r="A30" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="B30" s="14" t="s">
+      <c r="B30" s="17" t="s">
         <v>155</v>
       </c>
       <c r="C30" s="6">
         <v>2</v>
       </c>
-      <c r="D30" s="16" t="s">
+      <c r="D30" s="19" t="s">
         <v>156</v>
       </c>
       <c r="F30" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="G30" s="14" t="s">
+      <c r="G30" s="17" t="s">
         <v>155</v>
       </c>
       <c r="H30" s="6">
         <v>1</v>
       </c>
-      <c r="I30" s="16" t="s">
+      <c r="I30" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="K30" s="19" t="s">
+      <c r="K30" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="L30" s="20" t="s">
+      <c r="L30" s="17" t="s">
         <v>155</v>
       </c>
       <c r="M30" s="6">
         <v>30</v>
       </c>
-      <c r="N30" s="24" t="s">
+      <c r="N30" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="P30" s="19" t="s">
+      <c r="P30" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="Q30" s="19" t="s">
+      <c r="Q30" s="5" t="s">
         <v>155</v>
       </c>
       <c r="R30" s="6">
         <v>30</v>
       </c>
-      <c r="S30" s="24" t="s">
+      <c r="S30" s="19" t="s">
         <v>37</v>
       </c>
     </row>
@@ -3142,43 +3117,43 @@
       <c r="A31" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="B31" s="14" t="s">
+      <c r="B31" s="17" t="s">
         <v>158</v>
       </c>
       <c r="C31" s="2">
         <v>8</v>
       </c>
-      <c r="D31" s="13" t="s">
+      <c r="D31" s="16" t="s">
         <v>159</v>
       </c>
       <c r="F31" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="G31" s="14" t="s">
+      <c r="G31" s="17" t="s">
         <v>158</v>
       </c>
       <c r="H31" s="2">
         <v>6</v>
       </c>
-      <c r="I31" s="13" t="s">
+      <c r="I31" s="16" t="s">
         <v>160</v>
       </c>
-      <c r="K31" s="19" t="s">
+      <c r="K31" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="L31" s="20" t="s">
+      <c r="L31" s="17" t="s">
         <v>158</v>
       </c>
       <c r="M31" s="2">
         <v>4</v>
       </c>
-      <c r="N31" s="22" t="s">
+      <c r="N31" s="16" t="s">
         <v>161</v>
       </c>
-      <c r="P31" s="19" t="s">
+      <c r="P31" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="Q31" s="19" t="s">
+      <c r="Q31" s="5" t="s">
         <v>158</v>
       </c>
       <c r="R31" s="2">
@@ -3192,43 +3167,43 @@
       <c r="A32" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="B32" s="14" t="s">
+      <c r="B32" s="17" t="s">
         <v>163</v>
       </c>
       <c r="C32" s="2">
         <v>5</v>
       </c>
-      <c r="D32" s="13" t="s">
+      <c r="D32" s="16" t="s">
         <v>164</v>
       </c>
       <c r="F32" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="G32" s="14" t="s">
+      <c r="G32" s="17" t="s">
         <v>163</v>
       </c>
       <c r="H32" s="2">
         <v>4</v>
       </c>
-      <c r="I32" s="13" t="s">
+      <c r="I32" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="K32" s="19" t="s">
+      <c r="K32" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="L32" s="20" t="s">
+      <c r="L32" s="17" t="s">
         <v>163</v>
       </c>
       <c r="M32" s="2">
         <v>3</v>
       </c>
-      <c r="N32" s="22" t="s">
+      <c r="N32" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="P32" s="19" t="s">
+      <c r="P32" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="Q32" s="19" t="s">
+      <c r="Q32" s="5" t="s">
         <v>163</v>
       </c>
       <c r="R32" s="2">
@@ -3242,43 +3217,43 @@
       <c r="A33" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="B33" s="14" t="s">
+      <c r="B33" s="17" t="s">
         <v>169</v>
       </c>
       <c r="C33" s="2">
         <v>7</v>
       </c>
-      <c r="D33" s="13" t="s">
+      <c r="D33" s="16" t="s">
         <v>170</v>
       </c>
       <c r="F33" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="G33" s="14" t="s">
+      <c r="G33" s="17" t="s">
         <v>169</v>
       </c>
       <c r="H33" s="2">
         <v>6</v>
       </c>
-      <c r="I33" s="13" t="s">
+      <c r="I33" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="K33" s="19" t="s">
+      <c r="K33" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="L33" s="20" t="s">
+      <c r="L33" s="17" t="s">
         <v>169</v>
       </c>
       <c r="M33" s="2">
         <v>5</v>
       </c>
-      <c r="N33" s="22" t="s">
+      <c r="N33" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="P33" s="19" t="s">
+      <c r="P33" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="Q33" s="19" t="s">
+      <c r="Q33" s="5" t="s">
         <v>169</v>
       </c>
       <c r="R33" s="2">
@@ -3292,43 +3267,43 @@
       <c r="A34" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="B34" s="12" t="s">
+      <c r="B34" s="15" t="s">
         <v>174</v>
       </c>
       <c r="C34" s="2">
         <v>7</v>
       </c>
-      <c r="D34" s="13" t="s">
+      <c r="D34" s="16" t="s">
         <v>32</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="G34" s="12" t="s">
+      <c r="G34" s="15" t="s">
         <v>174</v>
       </c>
       <c r="H34" s="2">
         <v>6</v>
       </c>
-      <c r="I34" s="13" t="s">
+      <c r="I34" s="16" t="s">
         <v>175</v>
       </c>
-      <c r="K34" s="17" t="s">
+      <c r="K34" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="L34" s="18" t="s">
+      <c r="L34" s="15" t="s">
         <v>174</v>
       </c>
       <c r="M34" s="2">
         <v>5</v>
       </c>
-      <c r="N34" s="22" t="s">
+      <c r="N34" s="16" t="s">
         <v>176</v>
       </c>
-      <c r="P34" s="17" t="s">
+      <c r="P34" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="Q34" s="17" t="s">
+      <c r="Q34" s="1" t="s">
         <v>174</v>
       </c>
       <c r="R34" s="2">
@@ -3342,43 +3317,43 @@
       <c r="A35" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="B35" s="14" t="s">
+      <c r="B35" s="17" t="s">
         <v>178</v>
       </c>
       <c r="C35" s="2">
         <v>10</v>
       </c>
-      <c r="D35" s="13" t="s">
+      <c r="D35" s="16" t="s">
         <v>179</v>
       </c>
       <c r="F35" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="G35" s="14" t="s">
+      <c r="G35" s="17" t="s">
         <v>178</v>
       </c>
       <c r="H35" s="2">
         <v>9</v>
       </c>
-      <c r="I35" s="13" t="s">
+      <c r="I35" s="16" t="s">
         <v>180</v>
       </c>
-      <c r="K35" s="19" t="s">
+      <c r="K35" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="L35" s="20" t="s">
+      <c r="L35" s="17" t="s">
         <v>178</v>
       </c>
       <c r="M35" s="2">
         <v>8</v>
       </c>
-      <c r="N35" s="22" t="s">
+      <c r="N35" s="16" t="s">
         <v>181</v>
       </c>
-      <c r="P35" s="19" t="s">
+      <c r="P35" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="Q35" s="19" t="s">
+      <c r="Q35" s="5" t="s">
         <v>178</v>
       </c>
       <c r="R35" s="2">
@@ -3392,43 +3367,43 @@
       <c r="A36" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="B36" s="14" t="s">
+      <c r="B36" s="17" t="s">
         <v>184</v>
       </c>
       <c r="C36" s="2">
         <v>3</v>
       </c>
-      <c r="D36" s="13" t="s">
+      <c r="D36" s="16" t="s">
         <v>185</v>
       </c>
       <c r="F36" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="G36" s="14" t="s">
+      <c r="G36" s="17" t="s">
         <v>184</v>
       </c>
       <c r="H36" s="2">
         <v>2</v>
       </c>
-      <c r="I36" s="13" t="s">
+      <c r="I36" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="K36" s="19" t="s">
+      <c r="K36" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="L36" s="20" t="s">
+      <c r="L36" s="17" t="s">
         <v>184</v>
       </c>
       <c r="M36" s="2">
         <v>1</v>
       </c>
-      <c r="N36" s="22" t="s">
+      <c r="N36" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="P36" s="19" t="s">
+      <c r="P36" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="Q36" s="19" t="s">
+      <c r="Q36" s="5" t="s">
         <v>184</v>
       </c>
       <c r="R36" s="2">
@@ -3450,10 +3425,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M36"/>
+  <dimension ref="A1:R36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -3464,9 +3439,11 @@
     <col min="4" max="4" width="7" customWidth="1"/>
     <col min="6" max="6" width="23.75" customWidth="1"/>
     <col min="7" max="11" width="3.375" customWidth="1"/>
+    <col min="13" max="13" width="23.75" customWidth="1"/>
+    <col min="14" max="18" width="3.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -3491,11 +3468,18 @@
       <c r="I1" s="10"/>
       <c r="J1" s="10"/>
       <c r="K1" s="10"/>
-      <c r="M1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="M1" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="N1" s="13">
+        <v>30</v>
+      </c>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13"/>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="5" t="s">
         <v>22</v>
       </c>
@@ -3517,7 +3501,7 @@
         <f t="shared" ref="G1:G36" si="2">D2</f>
         <v>3</v>
       </c>
-      <c r="H2" s="10">
+      <c r="H2" s="11">
         <f t="shared" ref="H1:H36" si="3">G2-1</f>
         <v>2</v>
       </c>
@@ -3529,8 +3513,21 @@
         <v>30</v>
       </c>
       <c r="K2" s="10"/>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="M2" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="N2" s="13">
+        <v>3</v>
+      </c>
+      <c r="O2" s="13">
+        <v>1</v>
+      </c>
+      <c r="P2" s="13">
+        <v>30</v>
+      </c>
+      <c r="R2" s="13"/>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1" t="s">
         <v>66</v>
       </c>
@@ -3568,8 +3565,26 @@
         <f>J3-1</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="M3" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="N3" s="13">
+        <v>5</v>
+      </c>
+      <c r="O3" s="13">
+        <v>4</v>
+      </c>
+      <c r="P3" s="13">
+        <v>3</v>
+      </c>
+      <c r="Q3" s="13">
+        <v>2</v>
+      </c>
+      <c r="R3" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="5" t="s">
         <v>92</v>
       </c>
@@ -3600,8 +3615,22 @@
       </c>
       <c r="J4" s="10"/>
       <c r="K4" s="10"/>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="M4" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="N4" s="13">
+        <v>2</v>
+      </c>
+      <c r="O4" s="13">
+        <v>1</v>
+      </c>
+      <c r="P4" s="13">
+        <v>30</v>
+      </c>
+      <c r="Q4" s="13"/>
+      <c r="R4" s="13"/>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="5" t="s">
         <v>98</v>
       </c>
@@ -3635,8 +3664,24 @@
         <v>30</v>
       </c>
       <c r="K5" s="10"/>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="M5" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="N5" s="13">
+        <v>3</v>
+      </c>
+      <c r="O5" s="13">
+        <v>2</v>
+      </c>
+      <c r="P5" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="13">
+        <v>30</v>
+      </c>
+      <c r="R5" s="13"/>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="5" t="s">
         <v>102</v>
       </c>
@@ -3661,8 +3706,18 @@
       <c r="I6" s="10"/>
       <c r="J6" s="10"/>
       <c r="K6" s="10"/>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="M6" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="N6" s="13">
+        <v>30</v>
+      </c>
+      <c r="O6" s="13"/>
+      <c r="P6" s="13"/>
+      <c r="Q6" s="13"/>
+      <c r="R6" s="13"/>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="5" t="s">
         <v>34</v>
       </c>
@@ -3690,8 +3745,20 @@
       <c r="I7" s="10"/>
       <c r="J7" s="10"/>
       <c r="K7" s="10"/>
-    </row>
-    <row r="8" spans="1:11">
+      <c r="M7" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="N7" s="13">
+        <v>1</v>
+      </c>
+      <c r="O7" s="13">
+        <v>30</v>
+      </c>
+      <c r="P7" s="13"/>
+      <c r="Q7" s="13"/>
+      <c r="R7" s="13"/>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1" t="s">
         <v>45</v>
       </c>
@@ -3729,8 +3796,26 @@
         <f>J8-1</f>
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:11">
+      <c r="M8" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="N8" s="13">
+        <v>9</v>
+      </c>
+      <c r="O8" s="13">
+        <v>8</v>
+      </c>
+      <c r="P8" s="13">
+        <v>7</v>
+      </c>
+      <c r="Q8" s="13">
+        <v>6</v>
+      </c>
+      <c r="R8" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="5" t="s">
         <v>151</v>
       </c>
@@ -3768,6 +3853,24 @@
         <f>J9-1</f>
         <v>4</v>
       </c>
+      <c r="M9" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="N9" s="13">
+        <v>8</v>
+      </c>
+      <c r="O9" s="13">
+        <v>7</v>
+      </c>
+      <c r="P9" s="13">
+        <v>6</v>
+      </c>
+      <c r="Q9" s="13">
+        <v>5</v>
+      </c>
+      <c r="R9" s="13">
+        <v>4</v>
+      </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="5" t="s">
@@ -3783,29 +3886,12 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="F10" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>Zahy Awwab</v>
-      </c>
-      <c r="G10" s="10">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="H10" s="10">
-        <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="I10" s="10">
-        <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="J10" s="10">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="K10" s="10">
-        <v>30</v>
-      </c>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
     </row>
     <row r="11" spans="4:4">
       <c r="D11" s="4" t="e">
@@ -3813,7 +3899,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:18">
       <c r="A12" s="1" t="s">
         <v>40</v>
       </c>
@@ -3844,8 +3930,22 @@
       </c>
       <c r="J12" s="10"/>
       <c r="K12" s="10"/>
-    </row>
-    <row r="13" spans="1:11">
+      <c r="M12" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="N12" s="13">
+        <v>2</v>
+      </c>
+      <c r="O12" s="13">
+        <v>1</v>
+      </c>
+      <c r="P12" s="13">
+        <v>30</v>
+      </c>
+      <c r="Q12" s="13"/>
+      <c r="R12" s="13"/>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="5" t="s">
         <v>77</v>
       </c>
@@ -3879,8 +3979,24 @@
         <v>30</v>
       </c>
       <c r="K13" s="10"/>
-    </row>
-    <row r="14" spans="1:11">
+      <c r="M13" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="N13" s="13">
+        <v>3</v>
+      </c>
+      <c r="O13" s="13">
+        <v>2</v>
+      </c>
+      <c r="P13" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="13">
+        <v>30</v>
+      </c>
+      <c r="R13" s="13"/>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="5" t="s">
         <v>80</v>
       </c>
@@ -3917,8 +4033,26 @@
       <c r="K14" s="10">
         <v>30</v>
       </c>
-    </row>
-    <row r="15" spans="1:11">
+      <c r="M14" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="N14" s="13">
+        <v>4</v>
+      </c>
+      <c r="O14" s="13">
+        <v>3</v>
+      </c>
+      <c r="P14" s="13">
+        <v>2</v>
+      </c>
+      <c r="Q14" s="13">
+        <v>1</v>
+      </c>
+      <c r="R14" s="13">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1" t="s">
         <v>127</v>
       </c>
@@ -3944,7 +4078,7 @@
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="I15" s="10">
+      <c r="I15" s="12">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
@@ -3955,8 +4089,26 @@
       <c r="K15" s="10">
         <v>30</v>
       </c>
-    </row>
-    <row r="16" spans="1:11">
+      <c r="M15" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="N15" s="13">
+        <v>4</v>
+      </c>
+      <c r="O15" s="13">
+        <v>3</v>
+      </c>
+      <c r="P15" s="13">
+        <v>2</v>
+      </c>
+      <c r="Q15" s="13">
+        <v>1</v>
+      </c>
+      <c r="R15" s="13">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="7" t="s">
         <v>131</v>
       </c>
@@ -3978,7 +4130,7 @@
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="H16" s="10">
+      <c r="H16" s="12">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
@@ -3993,8 +4145,26 @@
       <c r="K16" s="10">
         <v>30</v>
       </c>
-    </row>
-    <row r="17" spans="1:11">
+      <c r="M16" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="N16" s="13">
+        <v>4</v>
+      </c>
+      <c r="O16" s="13">
+        <v>3</v>
+      </c>
+      <c r="P16" s="13">
+        <v>2</v>
+      </c>
+      <c r="Q16" s="13">
+        <v>1</v>
+      </c>
+      <c r="R16" s="13">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="5" t="s">
         <v>135</v>
       </c>
@@ -4028,8 +4198,24 @@
         <v>30</v>
       </c>
       <c r="K17" s="10"/>
-    </row>
-    <row r="18" spans="1:11">
+      <c r="M17" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="N17" s="13">
+        <v>3</v>
+      </c>
+      <c r="O17" s="13">
+        <v>2</v>
+      </c>
+      <c r="P17" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="13">
+        <v>30</v>
+      </c>
+      <c r="R17" s="13"/>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="5" t="s">
         <v>154</v>
       </c>
@@ -4055,7 +4241,7 @@
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="I18" s="10">
+      <c r="I18" s="11">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -4063,8 +4249,21 @@
         <v>30</v>
       </c>
       <c r="K18" s="10"/>
-    </row>
-    <row r="19" spans="1:11">
+      <c r="M18" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="N18" s="13">
+        <v>3</v>
+      </c>
+      <c r="O18" s="13">
+        <v>2</v>
+      </c>
+      <c r="P18" s="13">
+        <v>30</v>
+      </c>
+      <c r="R18" s="13"/>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="5" t="s">
         <v>186</v>
       </c>
@@ -4100,6 +4299,24 @@
       </c>
       <c r="K19" s="10">
         <f>J19-1</f>
+        <v>1</v>
+      </c>
+      <c r="M19" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="N19" s="13">
+        <v>5</v>
+      </c>
+      <c r="O19" s="13">
+        <v>4</v>
+      </c>
+      <c r="P19" s="13">
+        <v>3</v>
+      </c>
+      <c r="Q19" s="13">
+        <v>2</v>
+      </c>
+      <c r="R19" s="13">
         <v>1</v>
       </c>
     </row>
@@ -4109,7 +4326,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:18">
       <c r="A21" s="7" t="s">
         <v>56</v>
       </c>
@@ -4131,11 +4348,11 @@
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="H21" s="10">
+      <c r="H21" s="11">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
-      <c r="I21" s="10">
+      <c r="I21" s="11">
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
@@ -4144,14 +4361,29 @@
         <v>5</v>
       </c>
       <c r="K21" s="10">
-        <f>J21-1</f>
+        <f t="shared" ref="K21:K27" si="6">J21-1</f>
         <v>4</v>
       </c>
-      <c r="M21">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
+      <c r="M21" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="N21" s="13">
+        <v>8</v>
+      </c>
+      <c r="O21" s="13">
+        <v>5</v>
+      </c>
+      <c r="P21" s="13">
+        <v>4</v>
+      </c>
+      <c r="Q21" s="13">
+        <v>3</v>
+      </c>
+      <c r="R21" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1" t="s">
         <v>10</v>
       </c>
@@ -4173,24 +4405,42 @@
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="H22" s="10">
+      <c r="H22" s="11">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="I22" s="10">
+      <c r="I22" s="11">
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="J22" s="10">
+      <c r="J22" s="11">
         <f t="shared" si="5"/>
         <v>8</v>
       </c>
-      <c r="K22" s="10">
-        <f>J22-1</f>
+      <c r="K22" s="11">
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="23" spans="1:11">
+      <c r="M22" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="N22" s="13">
+        <v>11</v>
+      </c>
+      <c r="O22" s="13">
+        <v>6</v>
+      </c>
+      <c r="P22" s="13">
+        <v>5</v>
+      </c>
+      <c r="Q22" s="13">
+        <v>4</v>
+      </c>
+      <c r="R22" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="5" t="s">
         <v>72</v>
       </c>
@@ -4225,11 +4475,29 @@
         <v>5</v>
       </c>
       <c r="K23" s="10">
-        <f>J23-1</f>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="24" spans="1:11">
+      <c r="M23" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="N23" s="13">
+        <v>8</v>
+      </c>
+      <c r="O23" s="13">
+        <v>7</v>
+      </c>
+      <c r="P23" s="13">
+        <v>6</v>
+      </c>
+      <c r="Q23" s="13">
+        <v>5</v>
+      </c>
+      <c r="R23" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1" t="s">
         <v>28</v>
       </c>
@@ -4251,11 +4519,11 @@
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="H24" s="10">
+      <c r="H24" s="11">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
-      <c r="I24" s="10">
+      <c r="I24" s="11">
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
@@ -4263,12 +4531,30 @@
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="K24" s="10">
-        <f>J24-1</f>
+      <c r="K24" s="11">
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="1:11">
+      <c r="M24" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="N24" s="13">
+        <v>8</v>
+      </c>
+      <c r="O24" s="13">
+        <v>5</v>
+      </c>
+      <c r="P24" s="13">
+        <v>3</v>
+      </c>
+      <c r="Q24" s="13">
+        <v>2</v>
+      </c>
+      <c r="R24" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1" t="s">
         <v>86</v>
       </c>
@@ -4290,11 +4576,11 @@
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="H25" s="10">
+      <c r="H25" s="11">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="I25" s="10">
+      <c r="I25" s="11">
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
@@ -4303,11 +4589,29 @@
         <v>8</v>
       </c>
       <c r="K25" s="10">
-        <f>J25-1</f>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="26" spans="1:11">
+      <c r="M25" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="N25" s="13">
+        <v>11</v>
+      </c>
+      <c r="O25" s="13">
+        <v>8</v>
+      </c>
+      <c r="P25" s="13">
+        <v>7</v>
+      </c>
+      <c r="Q25" s="13">
+        <v>6</v>
+      </c>
+      <c r="R25" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18">
       <c r="A26" s="5" t="s">
         <v>177</v>
       </c>
@@ -4326,27 +4630,44 @@
         <v>Syamil Muwahhiduddien</v>
       </c>
       <c r="G26" s="10">
-        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="H26" s="11">
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="H26" s="10">
-        <f t="shared" si="3"/>
+      <c r="I26" s="11">
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="I26" s="10">
-        <f t="shared" si="4"/>
+      <c r="J26" s="11">
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
-      <c r="J26" s="10">
-        <f t="shared" si="5"/>
+      <c r="K26" s="11">
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
-      <c r="K26" s="10">
-        <f>J26-1</f>
+      <c r="M26" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="N26" s="13">
+        <v>10</v>
+      </c>
+      <c r="O26" s="13">
         <v>5</v>
       </c>
-    </row>
-    <row r="27" spans="1:11">
+      <c r="P26" s="13">
+        <v>4</v>
+      </c>
+      <c r="Q26" s="13">
+        <v>3</v>
+      </c>
+      <c r="R26" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18">
       <c r="A27" s="5" t="s">
         <v>157</v>
       </c>
@@ -4381,7 +4702,25 @@
         <v>6</v>
       </c>
       <c r="K27" s="10">
-        <f>J27-1</f>
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="M27" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="N27" s="13">
+        <v>9</v>
+      </c>
+      <c r="O27" s="13">
+        <v>8</v>
+      </c>
+      <c r="P27" s="13">
+        <v>7</v>
+      </c>
+      <c r="Q27" s="13">
+        <v>6</v>
+      </c>
+      <c r="R27" s="13">
         <v>5</v>
       </c>
     </row>
@@ -4391,7 +4730,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:18">
       <c r="A29" s="1" t="s">
         <v>140</v>
       </c>
@@ -4409,11 +4748,11 @@
         <f t="shared" si="0"/>
         <v>Nur Azizah</v>
       </c>
-      <c r="G29" s="10">
+      <c r="G29" s="12">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="H29" s="10">
+      <c r="H29" s="12">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
@@ -4428,8 +4767,26 @@
       <c r="K29" s="10">
         <v>30</v>
       </c>
-    </row>
-    <row r="30" spans="1:11">
+      <c r="M29" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="N29" s="13">
+        <v>4</v>
+      </c>
+      <c r="O29" s="13">
+        <v>3</v>
+      </c>
+      <c r="P29" s="13">
+        <v>2</v>
+      </c>
+      <c r="Q29" s="13">
+        <v>1</v>
+      </c>
+      <c r="R29" s="13">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18">
       <c r="A30" s="1" t="s">
         <v>173</v>
       </c>
@@ -4451,11 +4808,11 @@
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="H30" s="10">
+      <c r="H30" s="12">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="I30" s="10">
+      <c r="I30" s="12">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
@@ -4464,11 +4821,29 @@
         <v>4</v>
       </c>
       <c r="K30" s="10">
-        <f>J30-1</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11">
+        <f t="shared" ref="K30:K35" si="7">J30-1</f>
+        <v>3</v>
+      </c>
+      <c r="M30" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="N30" s="13">
+        <v>7</v>
+      </c>
+      <c r="O30" s="13">
+        <v>6</v>
+      </c>
+      <c r="P30" s="13">
+        <v>5</v>
+      </c>
+      <c r="Q30" s="13">
+        <v>4</v>
+      </c>
+      <c r="R30" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18">
       <c r="A31" s="5" t="s">
         <v>60</v>
       </c>
@@ -4494,7 +4869,7 @@
         <f t="shared" si="3"/>
         <v>11</v>
       </c>
-      <c r="I31" s="10">
+      <c r="I31" s="11">
         <f t="shared" si="4"/>
         <v>10</v>
       </c>
@@ -4503,11 +4878,29 @@
         <v>9</v>
       </c>
       <c r="K31" s="10">
-        <f>J31-1</f>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="32" spans="1:11">
+      <c r="M31" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="N31" s="13">
+        <v>12</v>
+      </c>
+      <c r="O31" s="13">
+        <v>11</v>
+      </c>
+      <c r="P31" s="13">
+        <v>9</v>
+      </c>
+      <c r="Q31" s="13">
+        <v>8</v>
+      </c>
+      <c r="R31" s="13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18">
       <c r="A32" s="1" t="s">
         <v>146</v>
       </c>
@@ -4525,11 +4918,11 @@
         <f t="shared" si="0"/>
         <v>Nurlayli Ubadah</v>
       </c>
-      <c r="G32" s="10">
+      <c r="G32" s="11">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="H32" s="10">
+      <c r="H32" s="12">
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
@@ -4542,11 +4935,29 @@
         <v>7</v>
       </c>
       <c r="K32" s="10">
-        <f>J32-1</f>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="33" spans="1:11">
+      <c r="M32" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="N32" s="13">
+        <v>9</v>
+      </c>
+      <c r="O32" s="13">
+        <v>8</v>
+      </c>
+      <c r="P32" s="13">
+        <v>7</v>
+      </c>
+      <c r="Q32" s="13">
+        <v>6</v>
+      </c>
+      <c r="R32" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18">
       <c r="A33" s="7" t="s">
         <v>122</v>
       </c>
@@ -4568,24 +4979,42 @@
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="H33" s="10">
+      <c r="H33" s="11">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="I33" s="10">
+      <c r="I33" s="12">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="J33" s="10">
+      <c r="J33" s="12">
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="K33" s="10">
-        <f>J33-1</f>
+      <c r="K33" s="12">
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="34" spans="1:11">
+      <c r="M33" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="N33" s="13">
+        <v>6</v>
+      </c>
+      <c r="O33" s="13">
+        <v>4</v>
+      </c>
+      <c r="P33" s="13">
+        <v>3</v>
+      </c>
+      <c r="Q33" s="13">
+        <v>2</v>
+      </c>
+      <c r="R33" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18">
       <c r="A34" s="5" t="s">
         <v>168</v>
       </c>
@@ -4603,15 +5032,15 @@
         <f t="shared" si="0"/>
         <v>Salwa</v>
       </c>
-      <c r="G34" s="10">
+      <c r="G34" s="11">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="H34" s="10">
+      <c r="H34" s="11">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="I34" s="10">
+      <c r="I34" s="11">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
@@ -4620,11 +5049,27 @@
         <v>3</v>
       </c>
       <c r="K34" s="10">
-        <f>J34-1</f>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="35" spans="1:11">
+      <c r="M34" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="N34" s="13">
+        <v>3</v>
+      </c>
+      <c r="O34" s="13">
+        <v>2</v>
+      </c>
+      <c r="P34" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q34" s="13">
+        <v>30</v>
+      </c>
+      <c r="R34" s="13"/>
+    </row>
+    <row r="35" spans="1:18">
       <c r="A35" s="5" t="s">
         <v>105</v>
       </c>
@@ -4659,11 +5104,29 @@
         <v>11</v>
       </c>
       <c r="K35" s="10">
-        <f>J35-1</f>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="36" spans="1:11">
+      <c r="M35" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="N35" s="13">
+        <v>14</v>
+      </c>
+      <c r="O35" s="13">
+        <v>13</v>
+      </c>
+      <c r="P35" s="13">
+        <v>12</v>
+      </c>
+      <c r="Q35" s="13">
+        <v>11</v>
+      </c>
+      <c r="R35" s="13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18">
       <c r="A36" s="5" t="s">
         <v>51</v>
       </c>
@@ -4681,7 +5144,7 @@
         <f t="shared" si="0"/>
         <v>Inas Afifah</v>
       </c>
-      <c r="G36" s="10">
+      <c r="G36" s="11">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
@@ -4697,6 +5160,20 @@
         <v>30</v>
       </c>
       <c r="K36" s="10"/>
+      <c r="M36" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="N36" s="13">
+        <v>2</v>
+      </c>
+      <c r="O36" s="13">
+        <v>1</v>
+      </c>
+      <c r="P36" s="13">
+        <v>30</v>
+      </c>
+      <c r="Q36" s="13"/>
+      <c r="R36" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/laporan/data.xlsx
+++ b/laporan/data.xlsx
@@ -583,10 +583,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -618,9 +618,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -641,48 +647,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -693,8 +662,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -707,11 +701,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -730,9 +738,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -740,15 +748,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -769,7 +769,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -781,31 +787,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -817,7 +811,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -835,25 +847,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -865,25 +925,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -895,61 +943,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -978,35 +978,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1026,6 +1002,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1041,11 +1028,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1067,153 +1060,160 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1223,7 +1223,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1251,7 +1251,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1614,52 +1613,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="14" t="s">
+      <c r="B1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="14" t="s">
+      <c r="D1" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" s="14" t="s">
+      <c r="G1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="K1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="M1" s="14" t="s">
+      <c r="L1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="N1" s="14" t="s">
+      <c r="N1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="P1" s="14" t="s">
+      <c r="P1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="Q1" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="R1" s="14" t="s">
+      <c r="Q1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="R1" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="S1" s="14" t="s">
+      <c r="S1" s="13" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1667,37 +1666,37 @@
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="14" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="2">
         <v>11</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="15" t="s">
         <v>12</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="G2" s="14" t="s">
         <v>11</v>
       </c>
       <c r="H2" s="2">
         <v>10</v>
       </c>
-      <c r="I2" s="16" t="s">
+      <c r="I2" s="15" t="s">
         <v>13</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="15" t="s">
+      <c r="L2" s="14" t="s">
         <v>11</v>
       </c>
       <c r="M2" s="2">
         <v>10</v>
       </c>
-      <c r="N2" s="16" t="s">
+      <c r="N2" s="15" t="s">
         <v>14</v>
       </c>
       <c r="P2" s="1" t="s">
@@ -1717,7 +1716,7 @@
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="2">
@@ -1729,7 +1728,7 @@
       <c r="F3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="15" t="s">
+      <c r="G3" s="14" t="s">
         <v>17</v>
       </c>
       <c r="H3" s="2">
@@ -1741,7 +1740,7 @@
       <c r="K3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L3" s="15" t="s">
+      <c r="L3" s="14" t="s">
         <v>17</v>
       </c>
       <c r="M3" s="2">
@@ -1767,37 +1766,37 @@
       <c r="A4" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="16" t="s">
         <v>23</v>
       </c>
       <c r="C4" s="2">
         <v>3</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="15" t="s">
         <v>24</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="17" t="s">
+      <c r="G4" s="16" t="s">
         <v>23</v>
       </c>
       <c r="H4" s="2">
         <v>3</v>
       </c>
-      <c r="I4" s="16" t="s">
+      <c r="I4" s="15" t="s">
         <v>25</v>
       </c>
       <c r="K4" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="L4" s="17" t="s">
+      <c r="L4" s="16" t="s">
         <v>23</v>
       </c>
       <c r="M4" s="2">
         <v>1</v>
       </c>
-      <c r="N4" s="16" t="s">
+      <c r="N4" s="15" t="s">
         <v>26</v>
       </c>
       <c r="P4" s="5" t="s">
@@ -1809,7 +1808,7 @@
       <c r="R4" s="2">
         <v>30</v>
       </c>
-      <c r="S4" s="16" t="s">
+      <c r="S4" s="15" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1817,37 +1816,37 @@
       <c r="A5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="14" t="s">
         <v>29</v>
       </c>
       <c r="C5" s="9">
         <v>8</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="17" t="s">
         <v>30</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="15" t="s">
+      <c r="G5" s="14" t="s">
         <v>29</v>
       </c>
       <c r="H5" s="9">
         <v>7</v>
       </c>
-      <c r="I5" s="18" t="s">
+      <c r="I5" s="17" t="s">
         <v>31</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="L5" s="15" t="s">
+      <c r="L5" s="14" t="s">
         <v>29</v>
       </c>
       <c r="M5" s="9">
         <v>7</v>
       </c>
-      <c r="N5" s="18" t="s">
+      <c r="N5" s="17" t="s">
         <v>32</v>
       </c>
       <c r="P5" s="1" t="s">
@@ -1867,37 +1866,37 @@
       <c r="A6" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="16" t="s">
         <v>35</v>
       </c>
       <c r="C6" s="2">
         <v>1</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="15" t="s">
         <v>36</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="G6" s="17" t="s">
+      <c r="G6" s="16" t="s">
         <v>35</v>
       </c>
       <c r="H6" s="2">
         <v>30</v>
       </c>
-      <c r="I6" s="16" t="s">
+      <c r="I6" s="15" t="s">
         <v>37</v>
       </c>
       <c r="K6" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="L6" s="17" t="s">
+      <c r="L6" s="16" t="s">
         <v>35</v>
       </c>
       <c r="M6" s="2">
         <v>30</v>
       </c>
-      <c r="N6" s="16" t="s">
+      <c r="N6" s="15" t="s">
         <v>38</v>
       </c>
       <c r="P6" s="5" t="s">
@@ -1917,37 +1916,37 @@
       <c r="A7" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="14" t="s">
         <v>41</v>
       </c>
       <c r="C7" s="2">
         <v>2</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="15" t="s">
         <v>42</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G7" s="15" t="s">
+      <c r="G7" s="14" t="s">
         <v>41</v>
       </c>
       <c r="H7" s="2">
         <v>1</v>
       </c>
-      <c r="I7" s="16" t="s">
+      <c r="I7" s="15" t="s">
         <v>43</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="L7" s="15" t="s">
+      <c r="L7" s="14" t="s">
         <v>41</v>
       </c>
       <c r="M7" s="2">
         <v>30</v>
       </c>
-      <c r="N7" s="16" t="s">
+      <c r="N7" s="15" t="s">
         <v>37</v>
       </c>
       <c r="P7" s="1" t="s">
@@ -1967,37 +1966,37 @@
       <c r="A8" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="14" t="s">
         <v>46</v>
       </c>
       <c r="C8" s="2">
         <v>7</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="D8" s="15" t="s">
         <v>47</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G8" s="15" t="s">
+      <c r="G8" s="14" t="s">
         <v>46</v>
       </c>
       <c r="H8" s="2">
         <v>5</v>
       </c>
-      <c r="I8" s="16" t="s">
+      <c r="I8" s="15" t="s">
         <v>48</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="L8" s="15" t="s">
+      <c r="L8" s="14" t="s">
         <v>46</v>
       </c>
       <c r="M8" s="2">
         <v>4</v>
       </c>
-      <c r="N8" s="16" t="s">
+      <c r="N8" s="15" t="s">
         <v>49</v>
       </c>
       <c r="P8" s="1" t="s">
@@ -2009,7 +2008,7 @@
       <c r="R8" s="2">
         <v>1</v>
       </c>
-      <c r="S8" s="16" t="s">
+      <c r="S8" s="15" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2017,37 +2016,37 @@
       <c r="A9" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="16" t="s">
         <v>52</v>
       </c>
       <c r="C9" s="2">
         <v>4</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="15" t="s">
         <v>53</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="G9" s="17" t="s">
+      <c r="G9" s="16" t="s">
         <v>52</v>
       </c>
       <c r="H9" s="2">
         <v>3</v>
       </c>
-      <c r="I9" s="16" t="s">
+      <c r="I9" s="15" t="s">
         <v>54</v>
       </c>
       <c r="K9" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="L9" s="17" t="s">
+      <c r="L9" s="16" t="s">
         <v>52</v>
       </c>
       <c r="M9" s="2">
         <v>3</v>
       </c>
-      <c r="N9" s="16" t="s">
+      <c r="N9" s="15" t="s">
         <v>25</v>
       </c>
       <c r="P9" s="5" t="s">
@@ -2067,37 +2066,37 @@
       <c r="A10" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="14" t="s">
         <v>57</v>
       </c>
       <c r="C10" s="9">
         <v>8</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="D10" s="17" t="s">
         <v>58</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="G10" s="15" t="s">
+      <c r="G10" s="14" t="s">
         <v>57</v>
       </c>
       <c r="H10" s="9">
         <v>7</v>
       </c>
-      <c r="I10" s="18" t="s">
+      <c r="I10" s="17" t="s">
         <v>59</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="L10" s="15" t="s">
+      <c r="L10" s="14" t="s">
         <v>57</v>
       </c>
       <c r="M10" s="9">
         <v>7</v>
       </c>
-      <c r="N10" s="18" t="s">
+      <c r="N10" s="17" t="s">
         <v>32</v>
       </c>
       <c r="P10" s="7" t="s">
@@ -2117,37 +2116,37 @@
       <c r="A11" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="16" t="s">
         <v>61</v>
       </c>
       <c r="C11" s="2">
         <v>11</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="D11" s="15" t="s">
         <v>62</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="G11" s="17" t="s">
+      <c r="G11" s="16" t="s">
         <v>61</v>
       </c>
       <c r="H11" s="2">
         <v>10</v>
       </c>
-      <c r="I11" s="16" t="s">
+      <c r="I11" s="15" t="s">
         <v>63</v>
       </c>
       <c r="K11" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="L11" s="17" t="s">
+      <c r="L11" s="16" t="s">
         <v>61</v>
       </c>
       <c r="M11" s="2">
         <v>9</v>
       </c>
-      <c r="N11" s="16" t="s">
+      <c r="N11" s="15" t="s">
         <v>64</v>
       </c>
       <c r="P11" s="5" t="s">
@@ -2167,37 +2166,37 @@
       <c r="A12" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="14" t="s">
         <v>67</v>
       </c>
       <c r="C12" s="2">
         <v>4</v>
       </c>
-      <c r="D12" s="16" t="s">
+      <c r="D12" s="15" t="s">
         <v>68</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="G12" s="15" t="s">
+      <c r="G12" s="14" t="s">
         <v>67</v>
       </c>
       <c r="H12" s="2">
         <v>3</v>
       </c>
-      <c r="I12" s="16" t="s">
+      <c r="I12" s="15" t="s">
         <v>69</v>
       </c>
       <c r="K12" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="L12" s="15" t="s">
+      <c r="L12" s="14" t="s">
         <v>67</v>
       </c>
       <c r="M12" s="2">
         <v>2</v>
       </c>
-      <c r="N12" s="16" t="s">
+      <c r="N12" s="15" t="s">
         <v>70</v>
       </c>
       <c r="P12" s="1" t="s">
@@ -2209,7 +2208,7 @@
       <c r="R12" s="2">
         <v>30</v>
       </c>
-      <c r="S12" s="16" t="s">
+      <c r="S12" s="15" t="s">
         <v>71</v>
       </c>
     </row>
@@ -2217,37 +2216,37 @@
       <c r="A13" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="16" t="s">
         <v>73</v>
       </c>
       <c r="C13" s="2">
         <v>8</v>
       </c>
-      <c r="D13" s="16" t="s">
+      <c r="D13" s="15" t="s">
         <v>74</v>
       </c>
       <c r="F13" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="G13" s="17" t="s">
+      <c r="G13" s="16" t="s">
         <v>73</v>
       </c>
       <c r="H13" s="2">
         <v>7</v>
       </c>
-      <c r="I13" s="16" t="s">
+      <c r="I13" s="15" t="s">
         <v>75</v>
       </c>
       <c r="K13" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="L13" s="17" t="s">
+      <c r="L13" s="16" t="s">
         <v>73</v>
       </c>
       <c r="M13" s="2">
         <v>6</v>
       </c>
-      <c r="N13" s="16" t="s">
+      <c r="N13" s="15" t="s">
         <v>76</v>
       </c>
       <c r="P13" s="5" t="s">
@@ -2267,49 +2266,49 @@
       <c r="A14" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="19" t="s">
         <v>78</v>
       </c>
       <c r="C14" s="6">
         <v>1</v>
       </c>
-      <c r="D14" s="19" t="s">
+      <c r="D14" s="18" t="s">
         <v>79</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="G14" s="20" t="s">
+      <c r="G14" s="19" t="s">
         <v>78</v>
       </c>
       <c r="H14" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="I14" s="19" t="s">
+      <c r="I14" s="18" t="s">
         <v>78</v>
       </c>
       <c r="K14" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="L14" s="20" t="s">
+      <c r="L14" s="19" t="s">
         <v>78</v>
       </c>
       <c r="M14" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="N14" s="19" t="s">
+      <c r="N14" s="18" t="s">
         <v>78</v>
       </c>
       <c r="P14" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="Q14" s="20" t="s">
+      <c r="Q14" s="19" t="s">
         <v>78</v>
       </c>
       <c r="R14" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="S14" s="19" t="s">
+      <c r="S14" s="18" t="s">
         <v>78</v>
       </c>
     </row>
@@ -2317,37 +2316,37 @@
       <c r="A15" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="16" t="s">
         <v>81</v>
       </c>
       <c r="C15" s="2">
         <v>4</v>
       </c>
-      <c r="D15" s="16" t="s">
+      <c r="D15" s="15" t="s">
         <v>82</v>
       </c>
       <c r="F15" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="G15" s="17" t="s">
+      <c r="G15" s="16" t="s">
         <v>81</v>
       </c>
       <c r="H15" s="2">
         <v>3</v>
       </c>
-      <c r="I15" s="16" t="s">
+      <c r="I15" s="15" t="s">
         <v>83</v>
       </c>
       <c r="K15" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="L15" s="17" t="s">
+      <c r="L15" s="16" t="s">
         <v>81</v>
       </c>
       <c r="M15" s="2">
         <v>2</v>
       </c>
-      <c r="N15" s="16" t="s">
+      <c r="N15" s="15" t="s">
         <v>84</v>
       </c>
       <c r="P15" s="5" t="s">
@@ -2367,37 +2366,37 @@
       <c r="A16" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="14" t="s">
         <v>87</v>
       </c>
       <c r="C16" s="2">
         <v>11</v>
       </c>
-      <c r="D16" s="16" t="s">
+      <c r="D16" s="15" t="s">
         <v>88</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="G16" s="15" t="s">
+      <c r="G16" s="14" t="s">
         <v>87</v>
       </c>
       <c r="H16" s="2">
         <v>10</v>
       </c>
-      <c r="I16" s="16" t="s">
+      <c r="I16" s="15" t="s">
         <v>89</v>
       </c>
       <c r="K16" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="L16" s="15" t="s">
+      <c r="L16" s="14" t="s">
         <v>87</v>
       </c>
       <c r="M16" s="2">
         <v>9</v>
       </c>
-      <c r="N16" s="16" t="s">
+      <c r="N16" s="15" t="s">
         <v>90</v>
       </c>
       <c r="P16" s="1" t="s">
@@ -2417,37 +2416,37 @@
       <c r="A17" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="B17" s="17" t="s">
+      <c r="B17" s="16" t="s">
         <v>93</v>
       </c>
       <c r="C17" s="2">
         <v>1</v>
       </c>
-      <c r="D17" s="16" t="s">
+      <c r="D17" s="15" t="s">
         <v>94</v>
       </c>
       <c r="F17" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="G17" s="17" t="s">
+      <c r="G17" s="16" t="s">
         <v>93</v>
       </c>
       <c r="H17" s="2">
         <v>1</v>
       </c>
-      <c r="I17" s="16" t="s">
+      <c r="I17" s="15" t="s">
         <v>95</v>
       </c>
       <c r="K17" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="L17" s="17" t="s">
+      <c r="L17" s="16" t="s">
         <v>93</v>
       </c>
       <c r="M17" s="2">
         <v>1</v>
       </c>
-      <c r="N17" s="16" t="s">
+      <c r="N17" s="15" t="s">
         <v>96</v>
       </c>
       <c r="P17" s="5" t="s">
@@ -2467,37 +2466,37 @@
       <c r="A18" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="B18" s="17" t="s">
+      <c r="B18" s="16" t="s">
         <v>99</v>
       </c>
       <c r="C18" s="2">
         <v>2</v>
       </c>
-      <c r="D18" s="16" t="s">
+      <c r="D18" s="15" t="s">
         <v>55</v>
       </c>
       <c r="F18" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="G18" s="17" t="s">
+      <c r="G18" s="16" t="s">
         <v>99</v>
       </c>
       <c r="H18" s="2">
         <v>1</v>
       </c>
-      <c r="I18" s="16" t="s">
+      <c r="I18" s="15" t="s">
         <v>100</v>
       </c>
       <c r="K18" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="L18" s="17" t="s">
+      <c r="L18" s="16" t="s">
         <v>99</v>
       </c>
       <c r="M18" s="2">
         <v>1</v>
       </c>
-      <c r="N18" s="16" t="s">
+      <c r="N18" s="15" t="s">
         <v>101</v>
       </c>
       <c r="P18" s="5" t="s">
@@ -2517,37 +2516,37 @@
       <c r="A19" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="B19" s="17" t="s">
+      <c r="B19" s="16" t="s">
         <v>103</v>
       </c>
       <c r="C19" s="2">
         <v>1</v>
       </c>
-      <c r="D19" s="16" t="s">
+      <c r="D19" s="15" t="s">
         <v>101</v>
       </c>
       <c r="F19" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="G19" s="17" t="s">
+      <c r="G19" s="16" t="s">
         <v>103</v>
       </c>
       <c r="H19" s="2">
         <v>1</v>
       </c>
-      <c r="I19" s="16" t="s">
+      <c r="I19" s="15" t="s">
         <v>96</v>
       </c>
       <c r="K19" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="L19" s="17" t="s">
+      <c r="L19" s="16" t="s">
         <v>103</v>
       </c>
       <c r="M19" s="2">
         <v>30</v>
       </c>
-      <c r="N19" s="16" t="s">
+      <c r="N19" s="15" t="s">
         <v>104</v>
       </c>
       <c r="P19" s="5" t="s">
@@ -2567,37 +2566,37 @@
       <c r="A20" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="B20" s="17" t="s">
+      <c r="B20" s="16" t="s">
         <v>106</v>
       </c>
       <c r="C20" s="2">
         <v>14</v>
       </c>
-      <c r="D20" s="16" t="s">
+      <c r="D20" s="15" t="s">
         <v>107</v>
       </c>
       <c r="F20" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="G20" s="17" t="s">
+      <c r="G20" s="16" t="s">
         <v>106</v>
       </c>
       <c r="H20" s="2">
         <v>13</v>
       </c>
-      <c r="I20" s="16" t="s">
+      <c r="I20" s="15" t="s">
         <v>108</v>
       </c>
       <c r="K20" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="L20" s="17" t="s">
+      <c r="L20" s="16" t="s">
         <v>106</v>
       </c>
       <c r="M20" s="2">
         <v>11</v>
       </c>
-      <c r="N20" s="16" t="s">
+      <c r="N20" s="15" t="s">
         <v>109</v>
       </c>
       <c r="P20" s="5" t="s">
@@ -2617,37 +2616,37 @@
       <c r="A21" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="B21" s="17" t="s">
+      <c r="B21" s="16" t="s">
         <v>112</v>
       </c>
       <c r="C21" s="2">
         <v>7</v>
       </c>
-      <c r="D21" s="16" t="s">
+      <c r="D21" s="15" t="s">
         <v>113</v>
       </c>
       <c r="F21" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="G21" s="17" t="s">
+      <c r="G21" s="16" t="s">
         <v>112</v>
       </c>
       <c r="H21" s="2">
         <v>6</v>
       </c>
-      <c r="I21" s="16" t="s">
+      <c r="I21" s="15" t="s">
         <v>114</v>
       </c>
       <c r="K21" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="L21" s="17" t="s">
+      <c r="L21" s="16" t="s">
         <v>112</v>
       </c>
       <c r="M21" s="2">
         <v>5</v>
       </c>
-      <c r="N21" s="16" t="s">
+      <c r="N21" s="15" t="s">
         <v>115</v>
       </c>
       <c r="P21" s="5" t="s">
@@ -2667,37 +2666,37 @@
       <c r="A22" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="B22" s="17" t="s">
+      <c r="B22" s="16" t="s">
         <v>118</v>
       </c>
       <c r="C22" s="2">
         <v>13</v>
       </c>
-      <c r="D22" s="16" t="s">
+      <c r="D22" s="15" t="s">
         <v>119</v>
       </c>
       <c r="F22" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="G22" s="17" t="s">
+      <c r="G22" s="16" t="s">
         <v>118</v>
       </c>
       <c r="H22" s="2">
         <v>12</v>
       </c>
-      <c r="I22" s="16" t="s">
+      <c r="I22" s="15" t="s">
         <v>120</v>
       </c>
       <c r="K22" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="L22" s="17" t="s">
+      <c r="L22" s="16" t="s">
         <v>118</v>
       </c>
       <c r="M22" s="2">
         <v>11</v>
       </c>
-      <c r="N22" s="16" t="s">
+      <c r="N22" s="15" t="s">
         <v>121</v>
       </c>
       <c r="P22" s="5" t="s">
@@ -2717,37 +2716,37 @@
       <c r="A23" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="B23" s="15" t="s">
+      <c r="B23" s="14" t="s">
         <v>123</v>
       </c>
       <c r="C23" s="2">
         <v>6</v>
       </c>
-      <c r="D23" s="16" t="s">
+      <c r="D23" s="15" t="s">
         <v>124</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="G23" s="15" t="s">
+      <c r="G23" s="14" t="s">
         <v>123</v>
       </c>
       <c r="H23" s="2">
         <v>5</v>
       </c>
-      <c r="I23" s="16" t="s">
+      <c r="I23" s="15" t="s">
         <v>125</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="L23" s="15" t="s">
+      <c r="L23" s="14" t="s">
         <v>123</v>
       </c>
       <c r="M23" s="2">
         <v>4</v>
       </c>
-      <c r="N23" s="16" t="s">
+      <c r="N23" s="15" t="s">
         <v>82</v>
       </c>
       <c r="P23" s="7" t="s">
@@ -2767,37 +2766,37 @@
       <c r="A24" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B24" s="15" t="s">
+      <c r="B24" s="14" t="s">
         <v>128</v>
       </c>
       <c r="C24" s="2">
         <v>2</v>
       </c>
-      <c r="D24" s="16" t="s">
+      <c r="D24" s="15" t="s">
         <v>70</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="G24" s="15" t="s">
+      <c r="G24" s="14" t="s">
         <v>128</v>
       </c>
       <c r="H24" s="2">
         <v>2</v>
       </c>
-      <c r="I24" s="16" t="s">
+      <c r="I24" s="15" t="s">
         <v>129</v>
       </c>
       <c r="K24" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="L24" s="15" t="s">
+      <c r="L24" s="14" t="s">
         <v>128</v>
       </c>
       <c r="M24" s="2">
         <v>1</v>
       </c>
-      <c r="N24" s="16" t="s">
+      <c r="N24" s="15" t="s">
         <v>101</v>
       </c>
       <c r="P24" s="1" t="s">
@@ -2817,37 +2816,37 @@
       <c r="A25" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="B25" s="15" t="s">
+      <c r="B25" s="14" t="s">
         <v>132</v>
       </c>
       <c r="C25" s="2">
         <v>4</v>
       </c>
-      <c r="D25" s="16" t="s">
+      <c r="D25" s="15" t="s">
         <v>133</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="G25" s="15" t="s">
+      <c r="G25" s="14" t="s">
         <v>132</v>
       </c>
       <c r="H25" s="2">
         <v>4</v>
       </c>
-      <c r="I25" s="16" t="s">
+      <c r="I25" s="15" t="s">
         <v>53</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="L25" s="15" t="s">
+      <c r="L25" s="14" t="s">
         <v>132</v>
       </c>
       <c r="M25" s="2">
         <v>3</v>
       </c>
-      <c r="N25" s="16" t="s">
+      <c r="N25" s="15" t="s">
         <v>134</v>
       </c>
       <c r="P25" s="7" t="s">
@@ -2867,37 +2866,37 @@
       <c r="A26" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="B26" s="17" t="s">
+      <c r="B26" s="16" t="s">
         <v>136</v>
       </c>
       <c r="C26" s="2">
         <v>3</v>
       </c>
-      <c r="D26" s="16" t="s">
+      <c r="D26" s="15" t="s">
         <v>137</v>
       </c>
       <c r="F26" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="G26" s="17" t="s">
+      <c r="G26" s="16" t="s">
         <v>136</v>
       </c>
       <c r="H26" s="2">
         <v>2</v>
       </c>
-      <c r="I26" s="16" t="s">
+      <c r="I26" s="15" t="s">
         <v>138</v>
       </c>
       <c r="K26" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="L26" s="17" t="s">
+      <c r="L26" s="16" t="s">
         <v>136</v>
       </c>
       <c r="M26" s="2">
         <v>2</v>
       </c>
-      <c r="N26" s="16" t="s">
+      <c r="N26" s="15" t="s">
         <v>139</v>
       </c>
       <c r="P26" s="5" t="s">
@@ -2917,37 +2916,37 @@
       <c r="A27" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B27" s="15" t="s">
+      <c r="B27" s="14" t="s">
         <v>141</v>
       </c>
       <c r="C27" s="9">
         <v>5</v>
       </c>
-      <c r="D27" s="18" t="s">
+      <c r="D27" s="17" t="s">
         <v>142</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="G27" s="15" t="s">
+      <c r="G27" s="14" t="s">
         <v>141</v>
       </c>
       <c r="H27" s="9">
         <v>4</v>
       </c>
-      <c r="I27" s="18" t="s">
+      <c r="I27" s="17" t="s">
         <v>143</v>
       </c>
       <c r="K27" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="L27" s="15" t="s">
+      <c r="L27" s="14" t="s">
         <v>141</v>
       </c>
       <c r="M27" s="9">
         <v>4</v>
       </c>
-      <c r="N27" s="18" t="s">
+      <c r="N27" s="17" t="s">
         <v>144</v>
       </c>
       <c r="P27" s="1" t="s">
@@ -2967,37 +2966,37 @@
       <c r="A28" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B28" s="15" t="s">
+      <c r="B28" s="14" t="s">
         <v>147</v>
       </c>
       <c r="C28" s="2">
         <v>11</v>
       </c>
-      <c r="D28" s="16" t="s">
+      <c r="D28" s="15" t="s">
         <v>148</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="G28" s="15" t="s">
+      <c r="G28" s="14" t="s">
         <v>147</v>
       </c>
       <c r="H28" s="2">
         <v>9</v>
       </c>
-      <c r="I28" s="16" t="s">
+      <c r="I28" s="15" t="s">
         <v>110</v>
       </c>
       <c r="K28" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="L28" s="15" t="s">
+      <c r="L28" s="14" t="s">
         <v>147</v>
       </c>
       <c r="M28" s="2">
         <v>8</v>
       </c>
-      <c r="N28" s="16" t="s">
+      <c r="N28" s="15" t="s">
         <v>149</v>
       </c>
       <c r="P28" s="1" t="s">
@@ -3017,37 +3016,37 @@
       <c r="A29" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="B29" s="17" t="s">
+      <c r="B29" s="16" t="s">
         <v>152</v>
       </c>
       <c r="C29" s="2">
         <v>7</v>
       </c>
-      <c r="D29" s="16" t="s">
+      <c r="D29" s="15" t="s">
         <v>31</v>
       </c>
       <c r="F29" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="G29" s="17" t="s">
+      <c r="G29" s="16" t="s">
         <v>152</v>
       </c>
       <c r="H29" s="2">
         <v>6</v>
       </c>
-      <c r="I29" s="16" t="s">
+      <c r="I29" s="15" t="s">
         <v>33</v>
       </c>
       <c r="K29" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="L29" s="17" t="s">
+      <c r="L29" s="16" t="s">
         <v>152</v>
       </c>
       <c r="M29" s="2">
         <v>5</v>
       </c>
-      <c r="N29" s="16" t="s">
+      <c r="N29" s="15" t="s">
         <v>153</v>
       </c>
       <c r="P29" s="5" t="s">
@@ -3067,37 +3066,37 @@
       <c r="A30" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="B30" s="17" t="s">
+      <c r="B30" s="16" t="s">
         <v>155</v>
       </c>
       <c r="C30" s="6">
         <v>2</v>
       </c>
-      <c r="D30" s="19" t="s">
+      <c r="D30" s="18" t="s">
         <v>156</v>
       </c>
       <c r="F30" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="G30" s="17" t="s">
+      <c r="G30" s="16" t="s">
         <v>155</v>
       </c>
       <c r="H30" s="6">
         <v>1</v>
       </c>
-      <c r="I30" s="19" t="s">
+      <c r="I30" s="18" t="s">
         <v>43</v>
       </c>
       <c r="K30" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="L30" s="17" t="s">
+      <c r="L30" s="16" t="s">
         <v>155</v>
       </c>
       <c r="M30" s="6">
         <v>30</v>
       </c>
-      <c r="N30" s="19" t="s">
+      <c r="N30" s="18" t="s">
         <v>104</v>
       </c>
       <c r="P30" s="5" t="s">
@@ -3109,7 +3108,7 @@
       <c r="R30" s="6">
         <v>30</v>
       </c>
-      <c r="S30" s="19" t="s">
+      <c r="S30" s="18" t="s">
         <v>37</v>
       </c>
     </row>
@@ -3117,37 +3116,37 @@
       <c r="A31" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="B31" s="17" t="s">
+      <c r="B31" s="16" t="s">
         <v>158</v>
       </c>
       <c r="C31" s="2">
         <v>8</v>
       </c>
-      <c r="D31" s="16" t="s">
+      <c r="D31" s="15" t="s">
         <v>159</v>
       </c>
       <c r="F31" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="G31" s="17" t="s">
+      <c r="G31" s="16" t="s">
         <v>158</v>
       </c>
       <c r="H31" s="2">
         <v>6</v>
       </c>
-      <c r="I31" s="16" t="s">
+      <c r="I31" s="15" t="s">
         <v>160</v>
       </c>
       <c r="K31" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="L31" s="17" t="s">
+      <c r="L31" s="16" t="s">
         <v>158</v>
       </c>
       <c r="M31" s="2">
         <v>4</v>
       </c>
-      <c r="N31" s="16" t="s">
+      <c r="N31" s="15" t="s">
         <v>161</v>
       </c>
       <c r="P31" s="5" t="s">
@@ -3167,37 +3166,37 @@
       <c r="A32" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="B32" s="17" t="s">
+      <c r="B32" s="16" t="s">
         <v>163</v>
       </c>
       <c r="C32" s="2">
         <v>5</v>
       </c>
-      <c r="D32" s="16" t="s">
+      <c r="D32" s="15" t="s">
         <v>164</v>
       </c>
       <c r="F32" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="G32" s="17" t="s">
+      <c r="G32" s="16" t="s">
         <v>163</v>
       </c>
       <c r="H32" s="2">
         <v>4</v>
       </c>
-      <c r="I32" s="16" t="s">
+      <c r="I32" s="15" t="s">
         <v>165</v>
       </c>
       <c r="K32" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="L32" s="17" t="s">
+      <c r="L32" s="16" t="s">
         <v>163</v>
       </c>
       <c r="M32" s="2">
         <v>3</v>
       </c>
-      <c r="N32" s="16" t="s">
+      <c r="N32" s="15" t="s">
         <v>166</v>
       </c>
       <c r="P32" s="5" t="s">
@@ -3217,37 +3216,37 @@
       <c r="A33" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="B33" s="17" t="s">
+      <c r="B33" s="16" t="s">
         <v>169</v>
       </c>
       <c r="C33" s="2">
         <v>7</v>
       </c>
-      <c r="D33" s="16" t="s">
+      <c r="D33" s="15" t="s">
         <v>170</v>
       </c>
       <c r="F33" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="G33" s="17" t="s">
+      <c r="G33" s="16" t="s">
         <v>169</v>
       </c>
       <c r="H33" s="2">
         <v>6</v>
       </c>
-      <c r="I33" s="16" t="s">
+      <c r="I33" s="15" t="s">
         <v>171</v>
       </c>
       <c r="K33" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="L33" s="17" t="s">
+      <c r="L33" s="16" t="s">
         <v>169</v>
       </c>
       <c r="M33" s="2">
         <v>5</v>
       </c>
-      <c r="N33" s="16" t="s">
+      <c r="N33" s="15" t="s">
         <v>125</v>
       </c>
       <c r="P33" s="5" t="s">
@@ -3267,37 +3266,37 @@
       <c r="A34" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="B34" s="15" t="s">
+      <c r="B34" s="14" t="s">
         <v>174</v>
       </c>
       <c r="C34" s="2">
         <v>7</v>
       </c>
-      <c r="D34" s="16" t="s">
+      <c r="D34" s="15" t="s">
         <v>32</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="G34" s="15" t="s">
+      <c r="G34" s="14" t="s">
         <v>174</v>
       </c>
       <c r="H34" s="2">
         <v>6</v>
       </c>
-      <c r="I34" s="16" t="s">
+      <c r="I34" s="15" t="s">
         <v>175</v>
       </c>
       <c r="K34" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="L34" s="15" t="s">
+      <c r="L34" s="14" t="s">
         <v>174</v>
       </c>
       <c r="M34" s="2">
         <v>5</v>
       </c>
-      <c r="N34" s="16" t="s">
+      <c r="N34" s="15" t="s">
         <v>176</v>
       </c>
       <c r="P34" s="1" t="s">
@@ -3317,37 +3316,37 @@
       <c r="A35" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="B35" s="17" t="s">
+      <c r="B35" s="16" t="s">
         <v>178</v>
       </c>
       <c r="C35" s="2">
         <v>10</v>
       </c>
-      <c r="D35" s="16" t="s">
+      <c r="D35" s="15" t="s">
         <v>179</v>
       </c>
       <c r="F35" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="G35" s="17" t="s">
+      <c r="G35" s="16" t="s">
         <v>178</v>
       </c>
       <c r="H35" s="2">
         <v>9</v>
       </c>
-      <c r="I35" s="16" t="s">
+      <c r="I35" s="15" t="s">
         <v>180</v>
       </c>
       <c r="K35" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="L35" s="17" t="s">
+      <c r="L35" s="16" t="s">
         <v>178</v>
       </c>
       <c r="M35" s="2">
         <v>8</v>
       </c>
-      <c r="N35" s="16" t="s">
+      <c r="N35" s="15" t="s">
         <v>181</v>
       </c>
       <c r="P35" s="5" t="s">
@@ -3367,37 +3366,37 @@
       <c r="A36" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="B36" s="17" t="s">
+      <c r="B36" s="16" t="s">
         <v>184</v>
       </c>
       <c r="C36" s="2">
         <v>3</v>
       </c>
-      <c r="D36" s="16" t="s">
+      <c r="D36" s="15" t="s">
         <v>185</v>
       </c>
       <c r="F36" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="G36" s="17" t="s">
+      <c r="G36" s="16" t="s">
         <v>184</v>
       </c>
       <c r="H36" s="2">
         <v>2</v>
       </c>
-      <c r="I36" s="16" t="s">
+      <c r="I36" s="15" t="s">
         <v>42</v>
       </c>
       <c r="K36" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="L36" s="17" t="s">
+      <c r="L36" s="16" t="s">
         <v>184</v>
       </c>
       <c r="M36" s="2">
         <v>1</v>
       </c>
-      <c r="N36" s="16" t="s">
+      <c r="N36" s="15" t="s">
         <v>79</v>
       </c>
       <c r="P36" s="5" t="s">
@@ -3428,7 +3427,7 @@
   <dimension ref="A1:R36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+      <selection activeCell="R32" sqref="R32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -3468,16 +3467,16 @@
       <c r="I1" s="10"/>
       <c r="J1" s="10"/>
       <c r="K1" s="10"/>
-      <c r="M1" s="13" t="s">
+      <c r="M1" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="N1" s="13">
+      <c r="N1" s="10">
         <v>30</v>
       </c>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="13"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
     </row>
     <row r="2" spans="1:18">
       <c r="A2" s="5" t="s">
@@ -3513,19 +3512,19 @@
         <v>30</v>
       </c>
       <c r="K2" s="10"/>
-      <c r="M2" s="13" t="s">
+      <c r="M2" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="N2" s="13">
-        <v>3</v>
-      </c>
-      <c r="O2" s="13">
-        <v>1</v>
-      </c>
-      <c r="P2" s="13">
+      <c r="N2" s="10">
+        <v>3</v>
+      </c>
+      <c r="O2" s="10">
+        <v>1</v>
+      </c>
+      <c r="P2" s="10">
         <v>30</v>
       </c>
-      <c r="R2" s="13"/>
+      <c r="R2" s="10"/>
     </row>
     <row r="3" spans="1:18">
       <c r="A3" s="1" t="s">
@@ -3565,22 +3564,22 @@
         <f>J3-1</f>
         <v>1</v>
       </c>
-      <c r="M3" s="13" t="s">
+      <c r="M3" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="N3" s="13">
+      <c r="N3" s="10">
         <v>5</v>
       </c>
-      <c r="O3" s="13">
+      <c r="O3" s="10">
         <v>4</v>
       </c>
-      <c r="P3" s="13">
-        <v>3</v>
-      </c>
-      <c r="Q3" s="13">
+      <c r="P3" s="10">
+        <v>3</v>
+      </c>
+      <c r="Q3" s="10">
         <v>2</v>
       </c>
-      <c r="R3" s="13">
+      <c r="R3" s="10">
         <v>1</v>
       </c>
     </row>
@@ -3615,20 +3614,20 @@
       </c>
       <c r="J4" s="10"/>
       <c r="K4" s="10"/>
-      <c r="M4" s="13" t="s">
+      <c r="M4" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="N4" s="13">
+      <c r="N4" s="10">
         <v>2</v>
       </c>
-      <c r="O4" s="13">
-        <v>1</v>
-      </c>
-      <c r="P4" s="13">
+      <c r="O4" s="10">
+        <v>1</v>
+      </c>
+      <c r="P4" s="10">
         <v>30</v>
       </c>
-      <c r="Q4" s="13"/>
-      <c r="R4" s="13"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="10"/>
     </row>
     <row r="5" spans="1:18">
       <c r="A5" s="5" t="s">
@@ -3664,22 +3663,22 @@
         <v>30</v>
       </c>
       <c r="K5" s="10"/>
-      <c r="M5" s="13" t="s">
+      <c r="M5" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="N5" s="13">
-        <v>3</v>
-      </c>
-      <c r="O5" s="13">
+      <c r="N5" s="10">
+        <v>3</v>
+      </c>
+      <c r="O5" s="10">
         <v>2</v>
       </c>
-      <c r="P5" s="13">
-        <v>1</v>
-      </c>
-      <c r="Q5" s="13">
+      <c r="P5" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="10">
         <v>30</v>
       </c>
-      <c r="R5" s="13"/>
+      <c r="R5" s="10"/>
     </row>
     <row r="6" spans="1:18">
       <c r="A6" s="5" t="s">
@@ -3706,16 +3705,16 @@
       <c r="I6" s="10"/>
       <c r="J6" s="10"/>
       <c r="K6" s="10"/>
-      <c r="M6" s="13" t="s">
+      <c r="M6" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="N6" s="13">
+      <c r="N6" s="10">
         <v>30</v>
       </c>
-      <c r="O6" s="13"/>
-      <c r="P6" s="13"/>
-      <c r="Q6" s="13"/>
-      <c r="R6" s="13"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="10"/>
     </row>
     <row r="7" spans="1:18">
       <c r="A7" s="5" t="s">
@@ -3745,18 +3744,18 @@
       <c r="I7" s="10"/>
       <c r="J7" s="10"/>
       <c r="K7" s="10"/>
-      <c r="M7" s="13" t="s">
+      <c r="M7" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="N7" s="13">
-        <v>1</v>
-      </c>
-      <c r="O7" s="13">
+      <c r="N7" s="10">
+        <v>1</v>
+      </c>
+      <c r="O7" s="10">
         <v>30</v>
       </c>
-      <c r="P7" s="13"/>
-      <c r="Q7" s="13"/>
-      <c r="R7" s="13"/>
+      <c r="P7" s="10"/>
+      <c r="Q7" s="10"/>
+      <c r="R7" s="10"/>
     </row>
     <row r="8" spans="1:18">
       <c r="A8" s="1" t="s">
@@ -3796,22 +3795,22 @@
         <f>J8-1</f>
         <v>5</v>
       </c>
-      <c r="M8" s="13" t="s">
+      <c r="M8" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="N8" s="13">
+      <c r="N8" s="10">
         <v>9</v>
       </c>
-      <c r="O8" s="13">
+      <c r="O8" s="10">
         <v>8</v>
       </c>
-      <c r="P8" s="13">
+      <c r="P8" s="10">
         <v>7</v>
       </c>
-      <c r="Q8" s="13">
+      <c r="Q8" s="10">
         <v>6</v>
       </c>
-      <c r="R8" s="13">
+      <c r="R8" s="10">
         <v>5</v>
       </c>
     </row>
@@ -3853,22 +3852,22 @@
         <f>J9-1</f>
         <v>4</v>
       </c>
-      <c r="M9" s="13" t="s">
+      <c r="M9" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="N9" s="13">
+      <c r="N9" s="10">
         <v>8</v>
       </c>
-      <c r="O9" s="13">
+      <c r="O9" s="10">
         <v>7</v>
       </c>
-      <c r="P9" s="13">
+      <c r="P9" s="10">
         <v>6</v>
       </c>
-      <c r="Q9" s="13">
+      <c r="Q9" s="10">
         <v>5</v>
       </c>
-      <c r="R9" s="13">
+      <c r="R9" s="10">
         <v>4</v>
       </c>
     </row>
@@ -3930,20 +3929,20 @@
       </c>
       <c r="J12" s="10"/>
       <c r="K12" s="10"/>
-      <c r="M12" s="13" t="s">
+      <c r="M12" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="N12" s="13">
+      <c r="N12" s="10">
         <v>2</v>
       </c>
-      <c r="O12" s="13">
-        <v>1</v>
-      </c>
-      <c r="P12" s="13">
+      <c r="O12" s="10">
+        <v>1</v>
+      </c>
+      <c r="P12" s="10">
         <v>30</v>
       </c>
-      <c r="Q12" s="13"/>
-      <c r="R12" s="13"/>
+      <c r="Q12" s="10"/>
+      <c r="R12" s="10"/>
     </row>
     <row r="13" spans="1:18">
       <c r="A13" s="5" t="s">
@@ -3979,22 +3978,22 @@
         <v>30</v>
       </c>
       <c r="K13" s="10"/>
-      <c r="M13" s="13" t="s">
+      <c r="M13" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="N13" s="13">
-        <v>3</v>
-      </c>
-      <c r="O13" s="13">
+      <c r="N13" s="10">
+        <v>3</v>
+      </c>
+      <c r="O13" s="10">
         <v>2</v>
       </c>
-      <c r="P13" s="13">
-        <v>1</v>
-      </c>
-      <c r="Q13" s="13">
+      <c r="P13" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="10">
         <v>30</v>
       </c>
-      <c r="R13" s="13"/>
+      <c r="R13" s="10"/>
     </row>
     <row r="14" spans="1:18">
       <c r="A14" s="5" t="s">
@@ -4033,22 +4032,22 @@
       <c r="K14" s="10">
         <v>30</v>
       </c>
-      <c r="M14" s="13" t="s">
+      <c r="M14" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="N14" s="13">
+      <c r="N14" s="10">
         <v>4</v>
       </c>
-      <c r="O14" s="13">
-        <v>3</v>
-      </c>
-      <c r="P14" s="13">
+      <c r="O14" s="10">
+        <v>3</v>
+      </c>
+      <c r="P14" s="10">
         <v>2</v>
       </c>
-      <c r="Q14" s="13">
-        <v>1</v>
-      </c>
-      <c r="R14" s="13">
+      <c r="Q14" s="10">
+        <v>1</v>
+      </c>
+      <c r="R14" s="10">
         <v>30</v>
       </c>
     </row>
@@ -4089,22 +4088,22 @@
       <c r="K15" s="10">
         <v>30</v>
       </c>
-      <c r="M15" s="13" t="s">
+      <c r="M15" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="N15" s="13">
+      <c r="N15" s="10">
         <v>4</v>
       </c>
-      <c r="O15" s="13">
-        <v>3</v>
-      </c>
-      <c r="P15" s="13">
+      <c r="O15" s="10">
+        <v>3</v>
+      </c>
+      <c r="P15" s="10">
         <v>2</v>
       </c>
-      <c r="Q15" s="13">
-        <v>1</v>
-      </c>
-      <c r="R15" s="13">
+      <c r="Q15" s="10">
+        <v>1</v>
+      </c>
+      <c r="R15" s="10">
         <v>30</v>
       </c>
     </row>
@@ -4145,22 +4144,22 @@
       <c r="K16" s="10">
         <v>30</v>
       </c>
-      <c r="M16" s="13" t="s">
+      <c r="M16" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="N16" s="13">
+      <c r="N16" s="10">
         <v>4</v>
       </c>
-      <c r="O16" s="13">
-        <v>3</v>
-      </c>
-      <c r="P16" s="13">
+      <c r="O16" s="10">
+        <v>3</v>
+      </c>
+      <c r="P16" s="10">
         <v>2</v>
       </c>
-      <c r="Q16" s="13">
-        <v>1</v>
-      </c>
-      <c r="R16" s="13">
+      <c r="Q16" s="10">
+        <v>1</v>
+      </c>
+      <c r="R16" s="10">
         <v>30</v>
       </c>
     </row>
@@ -4198,22 +4197,22 @@
         <v>30</v>
       </c>
       <c r="K17" s="10"/>
-      <c r="M17" s="13" t="s">
+      <c r="M17" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="N17" s="13">
-        <v>3</v>
-      </c>
-      <c r="O17" s="13">
+      <c r="N17" s="10">
+        <v>3</v>
+      </c>
+      <c r="O17" s="10">
         <v>2</v>
       </c>
-      <c r="P17" s="13">
-        <v>1</v>
-      </c>
-      <c r="Q17" s="13">
+      <c r="P17" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="10">
         <v>30</v>
       </c>
-      <c r="R17" s="13"/>
+      <c r="R17" s="10"/>
     </row>
     <row r="18" spans="1:18">
       <c r="A18" s="5" t="s">
@@ -4249,19 +4248,19 @@
         <v>30</v>
       </c>
       <c r="K18" s="10"/>
-      <c r="M18" s="13" t="s">
+      <c r="M18" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="N18" s="13">
-        <v>3</v>
-      </c>
-      <c r="O18" s="13">
+      <c r="N18" s="10">
+        <v>3</v>
+      </c>
+      <c r="O18" s="10">
         <v>2</v>
       </c>
-      <c r="P18" s="13">
+      <c r="P18" s="10">
         <v>30</v>
       </c>
-      <c r="R18" s="13"/>
+      <c r="R18" s="10"/>
     </row>
     <row r="19" spans="1:18">
       <c r="A19" s="5" t="s">
@@ -4301,22 +4300,22 @@
         <f>J19-1</f>
         <v>1</v>
       </c>
-      <c r="M19" s="13" t="s">
+      <c r="M19" s="10" t="s">
         <v>186</v>
       </c>
-      <c r="N19" s="13">
+      <c r="N19" s="10">
         <v>5</v>
       </c>
-      <c r="O19" s="13">
+      <c r="O19" s="10">
         <v>4</v>
       </c>
-      <c r="P19" s="13">
-        <v>3</v>
-      </c>
-      <c r="Q19" s="13">
+      <c r="P19" s="10">
+        <v>3</v>
+      </c>
+      <c r="Q19" s="10">
         <v>2</v>
       </c>
-      <c r="R19" s="13">
+      <c r="R19" s="10">
         <v>1</v>
       </c>
     </row>
@@ -4364,22 +4363,22 @@
         <f t="shared" ref="K21:K27" si="6">J21-1</f>
         <v>4</v>
       </c>
-      <c r="M21" s="13" t="s">
+      <c r="M21" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="N21" s="13">
+      <c r="N21" s="10">
         <v>8</v>
       </c>
-      <c r="O21" s="13">
+      <c r="O21" s="10">
         <v>5</v>
       </c>
-      <c r="P21" s="13">
+      <c r="P21" s="10">
         <v>4</v>
       </c>
-      <c r="Q21" s="13">
-        <v>3</v>
-      </c>
-      <c r="R21" s="13">
+      <c r="Q21" s="10">
+        <v>3</v>
+      </c>
+      <c r="R21" s="10">
         <v>2</v>
       </c>
     </row>
@@ -4421,22 +4420,22 @@
         <f t="shared" si="6"/>
         <v>7</v>
       </c>
-      <c r="M22" s="13" t="s">
+      <c r="M22" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="N22" s="13">
+      <c r="N22" s="10">
         <v>11</v>
       </c>
-      <c r="O22" s="13">
+      <c r="O22" s="10">
         <v>6</v>
       </c>
-      <c r="P22" s="13">
+      <c r="P22" s="10">
         <v>5</v>
       </c>
-      <c r="Q22" s="13">
+      <c r="Q22" s="10">
         <v>4</v>
       </c>
-      <c r="R22" s="13">
+      <c r="R22" s="10">
         <v>3</v>
       </c>
     </row>
@@ -4478,22 +4477,22 @@
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="M23" s="13" t="s">
+      <c r="M23" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="N23" s="13">
+      <c r="N23" s="10">
         <v>8</v>
       </c>
-      <c r="O23" s="13">
+      <c r="O23" s="10">
         <v>7</v>
       </c>
-      <c r="P23" s="13">
+      <c r="P23" s="10">
         <v>6</v>
       </c>
-      <c r="Q23" s="13">
+      <c r="Q23" s="10">
         <v>5</v>
       </c>
-      <c r="R23" s="13">
+      <c r="R23" s="10">
         <v>4</v>
       </c>
     </row>
@@ -4535,22 +4534,22 @@
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="M24" s="13" t="s">
+      <c r="M24" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="N24" s="13">
+      <c r="N24" s="10">
         <v>8</v>
       </c>
-      <c r="O24" s="13">
+      <c r="O24" s="10">
         <v>5</v>
       </c>
-      <c r="P24" s="13">
-        <v>3</v>
-      </c>
-      <c r="Q24" s="13">
+      <c r="P24" s="10">
+        <v>3</v>
+      </c>
+      <c r="Q24" s="10">
         <v>2</v>
       </c>
-      <c r="R24" s="13">
+      <c r="R24" s="10">
         <v>1</v>
       </c>
     </row>
@@ -4592,22 +4591,22 @@
         <f t="shared" si="6"/>
         <v>7</v>
       </c>
-      <c r="M25" s="13" t="s">
+      <c r="M25" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="N25" s="13">
+      <c r="N25" s="10">
         <v>11</v>
       </c>
-      <c r="O25" s="13">
+      <c r="O25" s="10">
         <v>8</v>
       </c>
-      <c r="P25" s="13">
+      <c r="P25" s="10">
         <v>7</v>
       </c>
-      <c r="Q25" s="13">
+      <c r="Q25" s="10">
         <v>6</v>
       </c>
-      <c r="R25" s="13">
+      <c r="R25" s="10">
         <v>5</v>
       </c>
     </row>
@@ -4648,22 +4647,22 @@
         <f t="shared" si="6"/>
         <v>6</v>
       </c>
-      <c r="M26" s="13" t="s">
+      <c r="M26" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="N26" s="13">
+      <c r="N26" s="10">
         <v>10</v>
       </c>
-      <c r="O26" s="13">
+      <c r="O26" s="10">
         <v>5</v>
       </c>
-      <c r="P26" s="13">
+      <c r="P26" s="10">
         <v>4</v>
       </c>
-      <c r="Q26" s="13">
-        <v>3</v>
-      </c>
-      <c r="R26" s="13">
+      <c r="Q26" s="10">
+        <v>3</v>
+      </c>
+      <c r="R26" s="10">
         <v>2</v>
       </c>
     </row>
@@ -4705,22 +4704,22 @@
         <f t="shared" si="6"/>
         <v>5</v>
       </c>
-      <c r="M27" s="13" t="s">
+      <c r="M27" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="N27" s="13">
+      <c r="N27" s="10">
         <v>9</v>
       </c>
-      <c r="O27" s="13">
+      <c r="O27" s="10">
         <v>8</v>
       </c>
-      <c r="P27" s="13">
+      <c r="P27" s="10">
         <v>7</v>
       </c>
-      <c r="Q27" s="13">
+      <c r="Q27" s="10">
         <v>6</v>
       </c>
-      <c r="R27" s="13">
+      <c r="R27" s="10">
         <v>5</v>
       </c>
     </row>
@@ -4767,22 +4766,22 @@
       <c r="K29" s="10">
         <v>30</v>
       </c>
-      <c r="M29" s="13" t="s">
+      <c r="M29" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="N29" s="13">
+      <c r="N29" s="10">
         <v>4</v>
       </c>
-      <c r="O29" s="13">
-        <v>3</v>
-      </c>
-      <c r="P29" s="13">
+      <c r="O29" s="10">
+        <v>3</v>
+      </c>
+      <c r="P29" s="10">
         <v>2</v>
       </c>
-      <c r="Q29" s="13">
-        <v>1</v>
-      </c>
-      <c r="R29" s="13">
+      <c r="Q29" s="10">
+        <v>1</v>
+      </c>
+      <c r="R29" s="10">
         <v>30</v>
       </c>
     </row>
@@ -4824,22 +4823,22 @@
         <f t="shared" ref="K30:K35" si="7">J30-1</f>
         <v>3</v>
       </c>
-      <c r="M30" s="13" t="s">
+      <c r="M30" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="N30" s="13">
+      <c r="N30" s="10">
         <v>7</v>
       </c>
-      <c r="O30" s="13">
+      <c r="O30" s="10">
         <v>6</v>
       </c>
-      <c r="P30" s="13">
+      <c r="P30" s="10">
         <v>5</v>
       </c>
-      <c r="Q30" s="13">
+      <c r="Q30" s="10">
         <v>4</v>
       </c>
-      <c r="R30" s="13">
+      <c r="R30" s="10">
         <v>3</v>
       </c>
     </row>
@@ -4881,22 +4880,22 @@
         <f t="shared" si="7"/>
         <v>8</v>
       </c>
-      <c r="M31" s="13" t="s">
+      <c r="M31" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="N31" s="13">
+      <c r="N31" s="10">
         <v>12</v>
       </c>
-      <c r="O31" s="13">
+      <c r="O31" s="10">
         <v>11</v>
       </c>
-      <c r="P31" s="13">
+      <c r="P31" s="10">
         <v>9</v>
       </c>
-      <c r="Q31" s="13">
+      <c r="Q31" s="10">
         <v>8</v>
       </c>
-      <c r="R31" s="13">
+      <c r="R31" s="10">
         <v>7</v>
       </c>
     </row>
@@ -4938,23 +4937,23 @@
         <f t="shared" si="7"/>
         <v>6</v>
       </c>
-      <c r="M32" s="13" t="s">
+      <c r="M32" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="N32" s="13">
+      <c r="N32" s="10">
+        <v>10</v>
+      </c>
+      <c r="O32" s="10">
         <v>9</v>
       </c>
-      <c r="O32" s="13">
+      <c r="P32" s="10">
         <v>8</v>
       </c>
-      <c r="P32" s="13">
+      <c r="Q32" s="10">
         <v>7</v>
       </c>
-      <c r="Q32" s="13">
+      <c r="R32" s="10">
         <v>6</v>
-      </c>
-      <c r="R32" s="13">
-        <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:18">
@@ -4995,22 +4994,22 @@
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="M33" s="13" t="s">
+      <c r="M33" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="N33" s="13">
+      <c r="N33" s="10">
         <v>6</v>
       </c>
-      <c r="O33" s="13">
+      <c r="O33" s="10">
         <v>4</v>
       </c>
-      <c r="P33" s="13">
-        <v>3</v>
-      </c>
-      <c r="Q33" s="13">
+      <c r="P33" s="10">
+        <v>3</v>
+      </c>
+      <c r="Q33" s="10">
         <v>2</v>
       </c>
-      <c r="R33" s="13">
+      <c r="R33" s="10">
         <v>1</v>
       </c>
     </row>
@@ -5052,22 +5051,24 @@
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="M34" s="13" t="s">
+      <c r="M34" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="N34" s="13">
-        <v>3</v>
-      </c>
-      <c r="O34" s="13">
+      <c r="N34" s="10">
+        <v>6</v>
+      </c>
+      <c r="O34" s="10">
+        <v>5</v>
+      </c>
+      <c r="P34" s="10">
+        <v>4</v>
+      </c>
+      <c r="Q34" s="10">
+        <v>3</v>
+      </c>
+      <c r="R34" s="10">
         <v>2</v>
       </c>
-      <c r="P34" s="13">
-        <v>1</v>
-      </c>
-      <c r="Q34" s="13">
-        <v>30</v>
-      </c>
-      <c r="R34" s="13"/>
     </row>
     <row r="35" spans="1:18">
       <c r="A35" s="5" t="s">
@@ -5107,22 +5108,22 @@
         <f t="shared" si="7"/>
         <v>10</v>
       </c>
-      <c r="M35" s="13" t="s">
+      <c r="M35" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="N35" s="13">
+      <c r="N35" s="10">
         <v>14</v>
       </c>
-      <c r="O35" s="13">
+      <c r="O35" s="10">
         <v>13</v>
       </c>
-      <c r="P35" s="13">
+      <c r="P35" s="10">
         <v>12</v>
       </c>
-      <c r="Q35" s="13">
+      <c r="Q35" s="10">
         <v>11</v>
       </c>
-      <c r="R35" s="13">
+      <c r="R35" s="10">
         <v>10</v>
       </c>
     </row>
@@ -5160,20 +5161,20 @@
         <v>30</v>
       </c>
       <c r="K36" s="10"/>
-      <c r="M36" s="13" t="s">
+      <c r="M36" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="N36" s="13">
+      <c r="N36" s="10">
         <v>2</v>
       </c>
-      <c r="O36" s="13">
-        <v>1</v>
-      </c>
-      <c r="P36" s="13">
+      <c r="O36" s="10">
+        <v>1</v>
+      </c>
+      <c r="P36" s="10">
         <v>30</v>
       </c>
-      <c r="Q36" s="13"/>
-      <c r="R36" s="13"/>
+      <c r="Q36" s="10"/>
+      <c r="R36" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/laporan/data.xlsx
+++ b/laporan/data.xlsx
@@ -1223,7 +1223,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1251,6 +1251,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1613,52 +1614,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="13" t="s">
+      <c r="B1" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="13" t="s">
+      <c r="G1" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="K1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="M1" s="13" t="s">
+      <c r="L1" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="N1" s="13" t="s">
+      <c r="N1" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="P1" s="13" t="s">
+      <c r="P1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="Q1" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="R1" s="13" t="s">
+      <c r="Q1" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="R1" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="S1" s="13" t="s">
+      <c r="S1" s="14" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1666,37 +1667,37 @@
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="15" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="2">
         <v>11</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="16" t="s">
         <v>12</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="15" t="s">
         <v>11</v>
       </c>
       <c r="H2" s="2">
         <v>10</v>
       </c>
-      <c r="I2" s="15" t="s">
+      <c r="I2" s="16" t="s">
         <v>13</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="14" t="s">
+      <c r="L2" s="15" t="s">
         <v>11</v>
       </c>
       <c r="M2" s="2">
         <v>10</v>
       </c>
-      <c r="N2" s="15" t="s">
+      <c r="N2" s="16" t="s">
         <v>14</v>
       </c>
       <c r="P2" s="1" t="s">
@@ -1716,7 +1717,7 @@
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="15" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="2">
@@ -1728,7 +1729,7 @@
       <c r="F3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="G3" s="15" t="s">
         <v>17</v>
       </c>
       <c r="H3" s="2">
@@ -1740,7 +1741,7 @@
       <c r="K3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L3" s="14" t="s">
+      <c r="L3" s="15" t="s">
         <v>17</v>
       </c>
       <c r="M3" s="2">
@@ -1766,37 +1767,37 @@
       <c r="A4" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="17" t="s">
         <v>23</v>
       </c>
       <c r="C4" s="2">
         <v>3</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="16" t="s">
         <v>24</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="16" t="s">
+      <c r="G4" s="17" t="s">
         <v>23</v>
       </c>
       <c r="H4" s="2">
         <v>3</v>
       </c>
-      <c r="I4" s="15" t="s">
+      <c r="I4" s="16" t="s">
         <v>25</v>
       </c>
       <c r="K4" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="L4" s="16" t="s">
+      <c r="L4" s="17" t="s">
         <v>23</v>
       </c>
       <c r="M4" s="2">
         <v>1</v>
       </c>
-      <c r="N4" s="15" t="s">
+      <c r="N4" s="16" t="s">
         <v>26</v>
       </c>
       <c r="P4" s="5" t="s">
@@ -1808,7 +1809,7 @@
       <c r="R4" s="2">
         <v>30</v>
       </c>
-      <c r="S4" s="15" t="s">
+      <c r="S4" s="16" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1816,37 +1817,37 @@
       <c r="A5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="15" t="s">
         <v>29</v>
       </c>
       <c r="C5" s="9">
         <v>8</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="18" t="s">
         <v>30</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="14" t="s">
+      <c r="G5" s="15" t="s">
         <v>29</v>
       </c>
       <c r="H5" s="9">
         <v>7</v>
       </c>
-      <c r="I5" s="17" t="s">
+      <c r="I5" s="18" t="s">
         <v>31</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="L5" s="14" t="s">
+      <c r="L5" s="15" t="s">
         <v>29</v>
       </c>
       <c r="M5" s="9">
         <v>7</v>
       </c>
-      <c r="N5" s="17" t="s">
+      <c r="N5" s="18" t="s">
         <v>32</v>
       </c>
       <c r="P5" s="1" t="s">
@@ -1866,37 +1867,37 @@
       <c r="A6" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="17" t="s">
         <v>35</v>
       </c>
       <c r="C6" s="2">
         <v>1</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="16" t="s">
         <v>36</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="G6" s="16" t="s">
+      <c r="G6" s="17" t="s">
         <v>35</v>
       </c>
       <c r="H6" s="2">
         <v>30</v>
       </c>
-      <c r="I6" s="15" t="s">
+      <c r="I6" s="16" t="s">
         <v>37</v>
       </c>
       <c r="K6" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="L6" s="16" t="s">
+      <c r="L6" s="17" t="s">
         <v>35</v>
       </c>
       <c r="M6" s="2">
         <v>30</v>
       </c>
-      <c r="N6" s="15" t="s">
+      <c r="N6" s="16" t="s">
         <v>38</v>
       </c>
       <c r="P6" s="5" t="s">
@@ -1916,37 +1917,37 @@
       <c r="A7" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="15" t="s">
         <v>41</v>
       </c>
       <c r="C7" s="2">
         <v>2</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="16" t="s">
         <v>42</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G7" s="14" t="s">
+      <c r="G7" s="15" t="s">
         <v>41</v>
       </c>
       <c r="H7" s="2">
         <v>1</v>
       </c>
-      <c r="I7" s="15" t="s">
+      <c r="I7" s="16" t="s">
         <v>43</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="L7" s="14" t="s">
+      <c r="L7" s="15" t="s">
         <v>41</v>
       </c>
       <c r="M7" s="2">
         <v>30</v>
       </c>
-      <c r="N7" s="15" t="s">
+      <c r="N7" s="16" t="s">
         <v>37</v>
       </c>
       <c r="P7" s="1" t="s">
@@ -1966,37 +1967,37 @@
       <c r="A8" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="15" t="s">
         <v>46</v>
       </c>
       <c r="C8" s="2">
         <v>7</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="16" t="s">
         <v>47</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G8" s="14" t="s">
+      <c r="G8" s="15" t="s">
         <v>46</v>
       </c>
       <c r="H8" s="2">
         <v>5</v>
       </c>
-      <c r="I8" s="15" t="s">
+      <c r="I8" s="16" t="s">
         <v>48</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="L8" s="14" t="s">
+      <c r="L8" s="15" t="s">
         <v>46</v>
       </c>
       <c r="M8" s="2">
         <v>4</v>
       </c>
-      <c r="N8" s="15" t="s">
+      <c r="N8" s="16" t="s">
         <v>49</v>
       </c>
       <c r="P8" s="1" t="s">
@@ -2008,7 +2009,7 @@
       <c r="R8" s="2">
         <v>1</v>
       </c>
-      <c r="S8" s="15" t="s">
+      <c r="S8" s="16" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2016,37 +2017,37 @@
       <c r="A9" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="17" t="s">
         <v>52</v>
       </c>
       <c r="C9" s="2">
         <v>4</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="D9" s="16" t="s">
         <v>53</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="G9" s="16" t="s">
+      <c r="G9" s="17" t="s">
         <v>52</v>
       </c>
       <c r="H9" s="2">
         <v>3</v>
       </c>
-      <c r="I9" s="15" t="s">
+      <c r="I9" s="16" t="s">
         <v>54</v>
       </c>
       <c r="K9" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="L9" s="16" t="s">
+      <c r="L9" s="17" t="s">
         <v>52</v>
       </c>
       <c r="M9" s="2">
         <v>3</v>
       </c>
-      <c r="N9" s="15" t="s">
+      <c r="N9" s="16" t="s">
         <v>25</v>
       </c>
       <c r="P9" s="5" t="s">
@@ -2066,37 +2067,37 @@
       <c r="A10" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="15" t="s">
         <v>57</v>
       </c>
       <c r="C10" s="9">
         <v>8</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="18" t="s">
         <v>58</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="G10" s="14" t="s">
+      <c r="G10" s="15" t="s">
         <v>57</v>
       </c>
       <c r="H10" s="9">
         <v>7</v>
       </c>
-      <c r="I10" s="17" t="s">
+      <c r="I10" s="18" t="s">
         <v>59</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="L10" s="14" t="s">
+      <c r="L10" s="15" t="s">
         <v>57</v>
       </c>
       <c r="M10" s="9">
         <v>7</v>
       </c>
-      <c r="N10" s="17" t="s">
+      <c r="N10" s="18" t="s">
         <v>32</v>
       </c>
       <c r="P10" s="7" t="s">
@@ -2116,37 +2117,37 @@
       <c r="A11" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="17" t="s">
         <v>61</v>
       </c>
       <c r="C11" s="2">
         <v>11</v>
       </c>
-      <c r="D11" s="15" t="s">
+      <c r="D11" s="16" t="s">
         <v>62</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="G11" s="16" t="s">
+      <c r="G11" s="17" t="s">
         <v>61</v>
       </c>
       <c r="H11" s="2">
         <v>10</v>
       </c>
-      <c r="I11" s="15" t="s">
+      <c r="I11" s="16" t="s">
         <v>63</v>
       </c>
       <c r="K11" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="L11" s="16" t="s">
+      <c r="L11" s="17" t="s">
         <v>61</v>
       </c>
       <c r="M11" s="2">
         <v>9</v>
       </c>
-      <c r="N11" s="15" t="s">
+      <c r="N11" s="16" t="s">
         <v>64</v>
       </c>
       <c r="P11" s="5" t="s">
@@ -2166,37 +2167,37 @@
       <c r="A12" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="15" t="s">
         <v>67</v>
       </c>
       <c r="C12" s="2">
         <v>4</v>
       </c>
-      <c r="D12" s="15" t="s">
+      <c r="D12" s="16" t="s">
         <v>68</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="G12" s="14" t="s">
+      <c r="G12" s="15" t="s">
         <v>67</v>
       </c>
       <c r="H12" s="2">
         <v>3</v>
       </c>
-      <c r="I12" s="15" t="s">
+      <c r="I12" s="16" t="s">
         <v>69</v>
       </c>
       <c r="K12" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="L12" s="14" t="s">
+      <c r="L12" s="15" t="s">
         <v>67</v>
       </c>
       <c r="M12" s="2">
         <v>2</v>
       </c>
-      <c r="N12" s="15" t="s">
+      <c r="N12" s="16" t="s">
         <v>70</v>
       </c>
       <c r="P12" s="1" t="s">
@@ -2208,7 +2209,7 @@
       <c r="R12" s="2">
         <v>30</v>
       </c>
-      <c r="S12" s="15" t="s">
+      <c r="S12" s="16" t="s">
         <v>71</v>
       </c>
     </row>
@@ -2216,37 +2217,37 @@
       <c r="A13" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="17" t="s">
         <v>73</v>
       </c>
       <c r="C13" s="2">
         <v>8</v>
       </c>
-      <c r="D13" s="15" t="s">
+      <c r="D13" s="16" t="s">
         <v>74</v>
       </c>
       <c r="F13" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="G13" s="16" t="s">
+      <c r="G13" s="17" t="s">
         <v>73</v>
       </c>
       <c r="H13" s="2">
         <v>7</v>
       </c>
-      <c r="I13" s="15" t="s">
+      <c r="I13" s="16" t="s">
         <v>75</v>
       </c>
       <c r="K13" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="L13" s="16" t="s">
+      <c r="L13" s="17" t="s">
         <v>73</v>
       </c>
       <c r="M13" s="2">
         <v>6</v>
       </c>
-      <c r="N13" s="15" t="s">
+      <c r="N13" s="16" t="s">
         <v>76</v>
       </c>
       <c r="P13" s="5" t="s">
@@ -2266,49 +2267,49 @@
       <c r="A14" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="20" t="s">
         <v>78</v>
       </c>
       <c r="C14" s="6">
         <v>1</v>
       </c>
-      <c r="D14" s="18" t="s">
+      <c r="D14" s="19" t="s">
         <v>79</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="G14" s="19" t="s">
+      <c r="G14" s="20" t="s">
         <v>78</v>
       </c>
       <c r="H14" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="I14" s="18" t="s">
+      <c r="I14" s="19" t="s">
         <v>78</v>
       </c>
       <c r="K14" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="L14" s="19" t="s">
+      <c r="L14" s="20" t="s">
         <v>78</v>
       </c>
       <c r="M14" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="N14" s="18" t="s">
+      <c r="N14" s="19" t="s">
         <v>78</v>
       </c>
       <c r="P14" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="Q14" s="19" t="s">
+      <c r="Q14" s="20" t="s">
         <v>78</v>
       </c>
       <c r="R14" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="S14" s="18" t="s">
+      <c r="S14" s="19" t="s">
         <v>78</v>
       </c>
     </row>
@@ -2316,37 +2317,37 @@
       <c r="A15" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="17" t="s">
         <v>81</v>
       </c>
       <c r="C15" s="2">
         <v>4</v>
       </c>
-      <c r="D15" s="15" t="s">
+      <c r="D15" s="16" t="s">
         <v>82</v>
       </c>
       <c r="F15" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="G15" s="16" t="s">
+      <c r="G15" s="17" t="s">
         <v>81</v>
       </c>
       <c r="H15" s="2">
         <v>3</v>
       </c>
-      <c r="I15" s="15" t="s">
+      <c r="I15" s="16" t="s">
         <v>83</v>
       </c>
       <c r="K15" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="L15" s="16" t="s">
+      <c r="L15" s="17" t="s">
         <v>81</v>
       </c>
       <c r="M15" s="2">
         <v>2</v>
       </c>
-      <c r="N15" s="15" t="s">
+      <c r="N15" s="16" t="s">
         <v>84</v>
       </c>
       <c r="P15" s="5" t="s">
@@ -2366,37 +2367,37 @@
       <c r="A16" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="15" t="s">
         <v>87</v>
       </c>
       <c r="C16" s="2">
         <v>11</v>
       </c>
-      <c r="D16" s="15" t="s">
+      <c r="D16" s="16" t="s">
         <v>88</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="G16" s="14" t="s">
+      <c r="G16" s="15" t="s">
         <v>87</v>
       </c>
       <c r="H16" s="2">
         <v>10</v>
       </c>
-      <c r="I16" s="15" t="s">
+      <c r="I16" s="16" t="s">
         <v>89</v>
       </c>
       <c r="K16" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="L16" s="14" t="s">
+      <c r="L16" s="15" t="s">
         <v>87</v>
       </c>
       <c r="M16" s="2">
         <v>9</v>
       </c>
-      <c r="N16" s="15" t="s">
+      <c r="N16" s="16" t="s">
         <v>90</v>
       </c>
       <c r="P16" s="1" t="s">
@@ -2416,37 +2417,37 @@
       <c r="A17" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="17" t="s">
         <v>93</v>
       </c>
       <c r="C17" s="2">
         <v>1</v>
       </c>
-      <c r="D17" s="15" t="s">
+      <c r="D17" s="16" t="s">
         <v>94</v>
       </c>
       <c r="F17" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="G17" s="16" t="s">
+      <c r="G17" s="17" t="s">
         <v>93</v>
       </c>
       <c r="H17" s="2">
         <v>1</v>
       </c>
-      <c r="I17" s="15" t="s">
+      <c r="I17" s="16" t="s">
         <v>95</v>
       </c>
       <c r="K17" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="L17" s="16" t="s">
+      <c r="L17" s="17" t="s">
         <v>93</v>
       </c>
       <c r="M17" s="2">
         <v>1</v>
       </c>
-      <c r="N17" s="15" t="s">
+      <c r="N17" s="16" t="s">
         <v>96</v>
       </c>
       <c r="P17" s="5" t="s">
@@ -2466,37 +2467,37 @@
       <c r="A18" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="17" t="s">
         <v>99</v>
       </c>
       <c r="C18" s="2">
         <v>2</v>
       </c>
-      <c r="D18" s="15" t="s">
+      <c r="D18" s="16" t="s">
         <v>55</v>
       </c>
       <c r="F18" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="G18" s="16" t="s">
+      <c r="G18" s="17" t="s">
         <v>99</v>
       </c>
       <c r="H18" s="2">
         <v>1</v>
       </c>
-      <c r="I18" s="15" t="s">
+      <c r="I18" s="16" t="s">
         <v>100</v>
       </c>
       <c r="K18" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="L18" s="16" t="s">
+      <c r="L18" s="17" t="s">
         <v>99</v>
       </c>
       <c r="M18" s="2">
         <v>1</v>
       </c>
-      <c r="N18" s="15" t="s">
+      <c r="N18" s="16" t="s">
         <v>101</v>
       </c>
       <c r="P18" s="5" t="s">
@@ -2516,37 +2517,37 @@
       <c r="A19" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="17" t="s">
         <v>103</v>
       </c>
       <c r="C19" s="2">
         <v>1</v>
       </c>
-      <c r="D19" s="15" t="s">
+      <c r="D19" s="16" t="s">
         <v>101</v>
       </c>
       <c r="F19" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="G19" s="16" t="s">
+      <c r="G19" s="17" t="s">
         <v>103</v>
       </c>
       <c r="H19" s="2">
         <v>1</v>
       </c>
-      <c r="I19" s="15" t="s">
+      <c r="I19" s="16" t="s">
         <v>96</v>
       </c>
       <c r="K19" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="L19" s="16" t="s">
+      <c r="L19" s="17" t="s">
         <v>103</v>
       </c>
       <c r="M19" s="2">
         <v>30</v>
       </c>
-      <c r="N19" s="15" t="s">
+      <c r="N19" s="16" t="s">
         <v>104</v>
       </c>
       <c r="P19" s="5" t="s">
@@ -2566,37 +2567,37 @@
       <c r="A20" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="B20" s="16" t="s">
+      <c r="B20" s="17" t="s">
         <v>106</v>
       </c>
       <c r="C20" s="2">
         <v>14</v>
       </c>
-      <c r="D20" s="15" t="s">
+      <c r="D20" s="16" t="s">
         <v>107</v>
       </c>
       <c r="F20" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="G20" s="16" t="s">
+      <c r="G20" s="17" t="s">
         <v>106</v>
       </c>
       <c r="H20" s="2">
         <v>13</v>
       </c>
-      <c r="I20" s="15" t="s">
+      <c r="I20" s="16" t="s">
         <v>108</v>
       </c>
       <c r="K20" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="L20" s="16" t="s">
+      <c r="L20" s="17" t="s">
         <v>106</v>
       </c>
       <c r="M20" s="2">
         <v>11</v>
       </c>
-      <c r="N20" s="15" t="s">
+      <c r="N20" s="16" t="s">
         <v>109</v>
       </c>
       <c r="P20" s="5" t="s">
@@ -2616,37 +2617,37 @@
       <c r="A21" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="B21" s="16" t="s">
+      <c r="B21" s="17" t="s">
         <v>112</v>
       </c>
       <c r="C21" s="2">
         <v>7</v>
       </c>
-      <c r="D21" s="15" t="s">
+      <c r="D21" s="16" t="s">
         <v>113</v>
       </c>
       <c r="F21" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="G21" s="16" t="s">
+      <c r="G21" s="17" t="s">
         <v>112</v>
       </c>
       <c r="H21" s="2">
         <v>6</v>
       </c>
-      <c r="I21" s="15" t="s">
+      <c r="I21" s="16" t="s">
         <v>114</v>
       </c>
       <c r="K21" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="L21" s="16" t="s">
+      <c r="L21" s="17" t="s">
         <v>112</v>
       </c>
       <c r="M21" s="2">
         <v>5</v>
       </c>
-      <c r="N21" s="15" t="s">
+      <c r="N21" s="16" t="s">
         <v>115</v>
       </c>
       <c r="P21" s="5" t="s">
@@ -2666,37 +2667,37 @@
       <c r="A22" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="B22" s="16" t="s">
+      <c r="B22" s="17" t="s">
         <v>118</v>
       </c>
       <c r="C22" s="2">
         <v>13</v>
       </c>
-      <c r="D22" s="15" t="s">
+      <c r="D22" s="16" t="s">
         <v>119</v>
       </c>
       <c r="F22" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="G22" s="16" t="s">
+      <c r="G22" s="17" t="s">
         <v>118</v>
       </c>
       <c r="H22" s="2">
         <v>12</v>
       </c>
-      <c r="I22" s="15" t="s">
+      <c r="I22" s="16" t="s">
         <v>120</v>
       </c>
       <c r="K22" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="L22" s="16" t="s">
+      <c r="L22" s="17" t="s">
         <v>118</v>
       </c>
       <c r="M22" s="2">
         <v>11</v>
       </c>
-      <c r="N22" s="15" t="s">
+      <c r="N22" s="16" t="s">
         <v>121</v>
       </c>
       <c r="P22" s="5" t="s">
@@ -2716,37 +2717,37 @@
       <c r="A23" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="B23" s="14" t="s">
+      <c r="B23" s="15" t="s">
         <v>123</v>
       </c>
       <c r="C23" s="2">
         <v>6</v>
       </c>
-      <c r="D23" s="15" t="s">
+      <c r="D23" s="16" t="s">
         <v>124</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="G23" s="14" t="s">
+      <c r="G23" s="15" t="s">
         <v>123</v>
       </c>
       <c r="H23" s="2">
         <v>5</v>
       </c>
-      <c r="I23" s="15" t="s">
+      <c r="I23" s="16" t="s">
         <v>125</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="L23" s="14" t="s">
+      <c r="L23" s="15" t="s">
         <v>123</v>
       </c>
       <c r="M23" s="2">
         <v>4</v>
       </c>
-      <c r="N23" s="15" t="s">
+      <c r="N23" s="16" t="s">
         <v>82</v>
       </c>
       <c r="P23" s="7" t="s">
@@ -2766,37 +2767,37 @@
       <c r="A24" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B24" s="14" t="s">
+      <c r="B24" s="15" t="s">
         <v>128</v>
       </c>
       <c r="C24" s="2">
         <v>2</v>
       </c>
-      <c r="D24" s="15" t="s">
+      <c r="D24" s="16" t="s">
         <v>70</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="G24" s="14" t="s">
+      <c r="G24" s="15" t="s">
         <v>128</v>
       </c>
       <c r="H24" s="2">
         <v>2</v>
       </c>
-      <c r="I24" s="15" t="s">
+      <c r="I24" s="16" t="s">
         <v>129</v>
       </c>
       <c r="K24" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="L24" s="14" t="s">
+      <c r="L24" s="15" t="s">
         <v>128</v>
       </c>
       <c r="M24" s="2">
         <v>1</v>
       </c>
-      <c r="N24" s="15" t="s">
+      <c r="N24" s="16" t="s">
         <v>101</v>
       </c>
       <c r="P24" s="1" t="s">
@@ -2816,37 +2817,37 @@
       <c r="A25" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="B25" s="14" t="s">
+      <c r="B25" s="15" t="s">
         <v>132</v>
       </c>
       <c r="C25" s="2">
         <v>4</v>
       </c>
-      <c r="D25" s="15" t="s">
+      <c r="D25" s="16" t="s">
         <v>133</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="G25" s="14" t="s">
+      <c r="G25" s="15" t="s">
         <v>132</v>
       </c>
       <c r="H25" s="2">
         <v>4</v>
       </c>
-      <c r="I25" s="15" t="s">
+      <c r="I25" s="16" t="s">
         <v>53</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="L25" s="14" t="s">
+      <c r="L25" s="15" t="s">
         <v>132</v>
       </c>
       <c r="M25" s="2">
         <v>3</v>
       </c>
-      <c r="N25" s="15" t="s">
+      <c r="N25" s="16" t="s">
         <v>134</v>
       </c>
       <c r="P25" s="7" t="s">
@@ -2866,37 +2867,37 @@
       <c r="A26" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="B26" s="16" t="s">
+      <c r="B26" s="17" t="s">
         <v>136</v>
       </c>
       <c r="C26" s="2">
         <v>3</v>
       </c>
-      <c r="D26" s="15" t="s">
+      <c r="D26" s="16" t="s">
         <v>137</v>
       </c>
       <c r="F26" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="G26" s="16" t="s">
+      <c r="G26" s="17" t="s">
         <v>136</v>
       </c>
       <c r="H26" s="2">
         <v>2</v>
       </c>
-      <c r="I26" s="15" t="s">
+      <c r="I26" s="16" t="s">
         <v>138</v>
       </c>
       <c r="K26" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="L26" s="16" t="s">
+      <c r="L26" s="17" t="s">
         <v>136</v>
       </c>
       <c r="M26" s="2">
         <v>2</v>
       </c>
-      <c r="N26" s="15" t="s">
+      <c r="N26" s="16" t="s">
         <v>139</v>
       </c>
       <c r="P26" s="5" t="s">
@@ -2916,37 +2917,37 @@
       <c r="A27" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B27" s="14" t="s">
+      <c r="B27" s="15" t="s">
         <v>141</v>
       </c>
       <c r="C27" s="9">
         <v>5</v>
       </c>
-      <c r="D27" s="17" t="s">
+      <c r="D27" s="18" t="s">
         <v>142</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="G27" s="14" t="s">
+      <c r="G27" s="15" t="s">
         <v>141</v>
       </c>
       <c r="H27" s="9">
         <v>4</v>
       </c>
-      <c r="I27" s="17" t="s">
+      <c r="I27" s="18" t="s">
         <v>143</v>
       </c>
       <c r="K27" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="L27" s="14" t="s">
+      <c r="L27" s="15" t="s">
         <v>141</v>
       </c>
       <c r="M27" s="9">
         <v>4</v>
       </c>
-      <c r="N27" s="17" t="s">
+      <c r="N27" s="18" t="s">
         <v>144</v>
       </c>
       <c r="P27" s="1" t="s">
@@ -2966,37 +2967,37 @@
       <c r="A28" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B28" s="14" t="s">
+      <c r="B28" s="15" t="s">
         <v>147</v>
       </c>
       <c r="C28" s="2">
         <v>11</v>
       </c>
-      <c r="D28" s="15" t="s">
+      <c r="D28" s="16" t="s">
         <v>148</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="G28" s="14" t="s">
+      <c r="G28" s="15" t="s">
         <v>147</v>
       </c>
       <c r="H28" s="2">
         <v>9</v>
       </c>
-      <c r="I28" s="15" t="s">
+      <c r="I28" s="16" t="s">
         <v>110</v>
       </c>
       <c r="K28" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="L28" s="14" t="s">
+      <c r="L28" s="15" t="s">
         <v>147</v>
       </c>
       <c r="M28" s="2">
         <v>8</v>
       </c>
-      <c r="N28" s="15" t="s">
+      <c r="N28" s="16" t="s">
         <v>149</v>
       </c>
       <c r="P28" s="1" t="s">
@@ -3016,37 +3017,37 @@
       <c r="A29" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="B29" s="16" t="s">
+      <c r="B29" s="17" t="s">
         <v>152</v>
       </c>
       <c r="C29" s="2">
         <v>7</v>
       </c>
-      <c r="D29" s="15" t="s">
+      <c r="D29" s="16" t="s">
         <v>31</v>
       </c>
       <c r="F29" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="G29" s="16" t="s">
+      <c r="G29" s="17" t="s">
         <v>152</v>
       </c>
       <c r="H29" s="2">
         <v>6</v>
       </c>
-      <c r="I29" s="15" t="s">
+      <c r="I29" s="16" t="s">
         <v>33</v>
       </c>
       <c r="K29" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="L29" s="16" t="s">
+      <c r="L29" s="17" t="s">
         <v>152</v>
       </c>
       <c r="M29" s="2">
         <v>5</v>
       </c>
-      <c r="N29" s="15" t="s">
+      <c r="N29" s="16" t="s">
         <v>153</v>
       </c>
       <c r="P29" s="5" t="s">
@@ -3066,37 +3067,37 @@
       <c r="A30" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="B30" s="16" t="s">
+      <c r="B30" s="17" t="s">
         <v>155</v>
       </c>
       <c r="C30" s="6">
         <v>2</v>
       </c>
-      <c r="D30" s="18" t="s">
+      <c r="D30" s="19" t="s">
         <v>156</v>
       </c>
       <c r="F30" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="G30" s="16" t="s">
+      <c r="G30" s="17" t="s">
         <v>155</v>
       </c>
       <c r="H30" s="6">
         <v>1</v>
       </c>
-      <c r="I30" s="18" t="s">
+      <c r="I30" s="19" t="s">
         <v>43</v>
       </c>
       <c r="K30" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="L30" s="16" t="s">
+      <c r="L30" s="17" t="s">
         <v>155</v>
       </c>
       <c r="M30" s="6">
         <v>30</v>
       </c>
-      <c r="N30" s="18" t="s">
+      <c r="N30" s="19" t="s">
         <v>104</v>
       </c>
       <c r="P30" s="5" t="s">
@@ -3108,7 +3109,7 @@
       <c r="R30" s="6">
         <v>30</v>
       </c>
-      <c r="S30" s="18" t="s">
+      <c r="S30" s="19" t="s">
         <v>37</v>
       </c>
     </row>
@@ -3116,37 +3117,37 @@
       <c r="A31" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="B31" s="16" t="s">
+      <c r="B31" s="17" t="s">
         <v>158</v>
       </c>
       <c r="C31" s="2">
         <v>8</v>
       </c>
-      <c r="D31" s="15" t="s">
+      <c r="D31" s="16" t="s">
         <v>159</v>
       </c>
       <c r="F31" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="G31" s="16" t="s">
+      <c r="G31" s="17" t="s">
         <v>158</v>
       </c>
       <c r="H31" s="2">
         <v>6</v>
       </c>
-      <c r="I31" s="15" t="s">
+      <c r="I31" s="16" t="s">
         <v>160</v>
       </c>
       <c r="K31" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="L31" s="16" t="s">
+      <c r="L31" s="17" t="s">
         <v>158</v>
       </c>
       <c r="M31" s="2">
         <v>4</v>
       </c>
-      <c r="N31" s="15" t="s">
+      <c r="N31" s="16" t="s">
         <v>161</v>
       </c>
       <c r="P31" s="5" t="s">
@@ -3166,37 +3167,37 @@
       <c r="A32" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="B32" s="16" t="s">
+      <c r="B32" s="17" t="s">
         <v>163</v>
       </c>
       <c r="C32" s="2">
         <v>5</v>
       </c>
-      <c r="D32" s="15" t="s">
+      <c r="D32" s="16" t="s">
         <v>164</v>
       </c>
       <c r="F32" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="G32" s="16" t="s">
+      <c r="G32" s="17" t="s">
         <v>163</v>
       </c>
       <c r="H32" s="2">
         <v>4</v>
       </c>
-      <c r="I32" s="15" t="s">
+      <c r="I32" s="16" t="s">
         <v>165</v>
       </c>
       <c r="K32" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="L32" s="16" t="s">
+      <c r="L32" s="17" t="s">
         <v>163</v>
       </c>
       <c r="M32" s="2">
         <v>3</v>
       </c>
-      <c r="N32" s="15" t="s">
+      <c r="N32" s="16" t="s">
         <v>166</v>
       </c>
       <c r="P32" s="5" t="s">
@@ -3216,37 +3217,37 @@
       <c r="A33" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="B33" s="16" t="s">
+      <c r="B33" s="17" t="s">
         <v>169</v>
       </c>
       <c r="C33" s="2">
         <v>7</v>
       </c>
-      <c r="D33" s="15" t="s">
+      <c r="D33" s="16" t="s">
         <v>170</v>
       </c>
       <c r="F33" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="G33" s="16" t="s">
+      <c r="G33" s="17" t="s">
         <v>169</v>
       </c>
       <c r="H33" s="2">
         <v>6</v>
       </c>
-      <c r="I33" s="15" t="s">
+      <c r="I33" s="16" t="s">
         <v>171</v>
       </c>
       <c r="K33" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="L33" s="16" t="s">
+      <c r="L33" s="17" t="s">
         <v>169</v>
       </c>
       <c r="M33" s="2">
         <v>5</v>
       </c>
-      <c r="N33" s="15" t="s">
+      <c r="N33" s="16" t="s">
         <v>125</v>
       </c>
       <c r="P33" s="5" t="s">
@@ -3266,37 +3267,37 @@
       <c r="A34" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="B34" s="14" t="s">
+      <c r="B34" s="15" t="s">
         <v>174</v>
       </c>
       <c r="C34" s="2">
         <v>7</v>
       </c>
-      <c r="D34" s="15" t="s">
+      <c r="D34" s="16" t="s">
         <v>32</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="G34" s="14" t="s">
+      <c r="G34" s="15" t="s">
         <v>174</v>
       </c>
       <c r="H34" s="2">
         <v>6</v>
       </c>
-      <c r="I34" s="15" t="s">
+      <c r="I34" s="16" t="s">
         <v>175</v>
       </c>
       <c r="K34" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="L34" s="14" t="s">
+      <c r="L34" s="15" t="s">
         <v>174</v>
       </c>
       <c r="M34" s="2">
         <v>5</v>
       </c>
-      <c r="N34" s="15" t="s">
+      <c r="N34" s="16" t="s">
         <v>176</v>
       </c>
       <c r="P34" s="1" t="s">
@@ -3316,37 +3317,37 @@
       <c r="A35" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="B35" s="16" t="s">
+      <c r="B35" s="17" t="s">
         <v>178</v>
       </c>
       <c r="C35" s="2">
         <v>10</v>
       </c>
-      <c r="D35" s="15" t="s">
+      <c r="D35" s="16" t="s">
         <v>179</v>
       </c>
       <c r="F35" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="G35" s="16" t="s">
+      <c r="G35" s="17" t="s">
         <v>178</v>
       </c>
       <c r="H35" s="2">
         <v>9</v>
       </c>
-      <c r="I35" s="15" t="s">
+      <c r="I35" s="16" t="s">
         <v>180</v>
       </c>
       <c r="K35" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="L35" s="16" t="s">
+      <c r="L35" s="17" t="s">
         <v>178</v>
       </c>
       <c r="M35" s="2">
         <v>8</v>
       </c>
-      <c r="N35" s="15" t="s">
+      <c r="N35" s="16" t="s">
         <v>181</v>
       </c>
       <c r="P35" s="5" t="s">
@@ -3366,37 +3367,37 @@
       <c r="A36" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="B36" s="16" t="s">
+      <c r="B36" s="17" t="s">
         <v>184</v>
       </c>
       <c r="C36" s="2">
         <v>3</v>
       </c>
-      <c r="D36" s="15" t="s">
+      <c r="D36" s="16" t="s">
         <v>185</v>
       </c>
       <c r="F36" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="G36" s="16" t="s">
+      <c r="G36" s="17" t="s">
         <v>184</v>
       </c>
       <c r="H36" s="2">
         <v>2</v>
       </c>
-      <c r="I36" s="15" t="s">
+      <c r="I36" s="16" t="s">
         <v>42</v>
       </c>
       <c r="K36" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="L36" s="16" t="s">
+      <c r="L36" s="17" t="s">
         <v>184</v>
       </c>
       <c r="M36" s="2">
         <v>1</v>
       </c>
-      <c r="N36" s="15" t="s">
+      <c r="N36" s="16" t="s">
         <v>79</v>
       </c>
       <c r="P36" s="5" t="s">
@@ -3424,10 +3425,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R36"/>
+  <dimension ref="A1:AL36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="R32" sqref="R32"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="AJ4" sqref="AJ4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -3440,9 +3441,10 @@
     <col min="7" max="11" width="3.375" customWidth="1"/>
     <col min="13" max="13" width="23.75" customWidth="1"/>
     <col min="14" max="18" width="3.375" customWidth="1"/>
+    <col min="20" max="38" width="3.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:38">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -3477,8 +3479,56 @@
       <c r="P1" s="10"/>
       <c r="Q1" s="10"/>
       <c r="R1" s="10"/>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="U1" s="10"/>
+      <c r="V1" s="10"/>
+      <c r="W1" s="10"/>
+      <c r="X1" s="13">
+        <v>1</v>
+      </c>
+      <c r="Y1" s="13">
+        <v>1</v>
+      </c>
+      <c r="Z1" s="13">
+        <v>2</v>
+      </c>
+      <c r="AA1" s="13">
+        <v>4</v>
+      </c>
+      <c r="AB1" s="13">
+        <v>3</v>
+      </c>
+      <c r="AC1" s="13">
+        <v>4</v>
+      </c>
+      <c r="AD1" s="13">
+        <v>9</v>
+      </c>
+      <c r="AE1" s="13">
+        <v>8</v>
+      </c>
+      <c r="AF1" s="13">
+        <v>10</v>
+      </c>
+      <c r="AG1" s="13">
+        <v>13</v>
+      </c>
+      <c r="AH1" s="13">
+        <v>14</v>
+      </c>
+      <c r="AI1" s="13">
+        <v>18</v>
+      </c>
+      <c r="AJ1" s="13">
+        <v>18</v>
+      </c>
+      <c r="AK1" s="13">
+        <v>16</v>
+      </c>
+      <c r="AL1" s="13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:38">
       <c r="A2" s="5" t="s">
         <v>22</v>
       </c>
@@ -3525,8 +3575,53 @@
         <v>30</v>
       </c>
       <c r="R2" s="10"/>
-    </row>
-    <row r="3" spans="1:18">
+      <c r="X2" s="10">
+        <v>14</v>
+      </c>
+      <c r="Y2" s="10">
+        <v>13</v>
+      </c>
+      <c r="Z2" s="10">
+        <v>12</v>
+      </c>
+      <c r="AA2" s="10">
+        <v>11</v>
+      </c>
+      <c r="AB2" s="10">
+        <v>10</v>
+      </c>
+      <c r="AC2" s="10">
+        <v>9</v>
+      </c>
+      <c r="AD2" s="10">
+        <v>8</v>
+      </c>
+      <c r="AE2" s="10">
+        <v>7</v>
+      </c>
+      <c r="AF2" s="10">
+        <v>6</v>
+      </c>
+      <c r="AG2" s="10">
+        <v>5</v>
+      </c>
+      <c r="AH2" s="10">
+        <v>4</v>
+      </c>
+      <c r="AI2" s="10">
+        <v>3</v>
+      </c>
+      <c r="AJ2" s="10">
+        <v>2</v>
+      </c>
+      <c r="AK2" s="10">
+        <v>1</v>
+      </c>
+      <c r="AL2" s="10">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:38">
       <c r="A3" s="1" t="s">
         <v>66</v>
       </c>
@@ -3582,8 +3677,47 @@
       <c r="R3" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:18">
+      <c r="Z3" s="10">
+        <v>12</v>
+      </c>
+      <c r="AA3" s="10">
+        <v>11</v>
+      </c>
+      <c r="AB3" s="10">
+        <v>10</v>
+      </c>
+      <c r="AC3" s="10">
+        <v>9</v>
+      </c>
+      <c r="AD3" s="10">
+        <v>8</v>
+      </c>
+      <c r="AE3" s="10">
+        <v>7</v>
+      </c>
+      <c r="AF3" s="10">
+        <v>6</v>
+      </c>
+      <c r="AG3" s="10">
+        <v>5</v>
+      </c>
+      <c r="AH3" s="10">
+        <v>4</v>
+      </c>
+      <c r="AI3" s="10">
+        <v>3</v>
+      </c>
+      <c r="AJ3" s="10">
+        <v>2</v>
+      </c>
+      <c r="AK3" s="10">
+        <v>1</v>
+      </c>
+      <c r="AL3" s="10">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:38">
       <c r="A4" s="5" t="s">
         <v>92</v>
       </c>
@@ -3628,8 +3762,45 @@
       </c>
       <c r="Q4" s="10"/>
       <c r="R4" s="10"/>
-    </row>
-    <row r="5" spans="1:18">
+      <c r="W4" s="10"/>
+      <c r="AA4" s="10">
+        <v>11</v>
+      </c>
+      <c r="AB4" s="10">
+        <v>10</v>
+      </c>
+      <c r="AC4" s="10">
+        <v>9</v>
+      </c>
+      <c r="AD4" s="10">
+        <v>8</v>
+      </c>
+      <c r="AE4" s="10">
+        <v>7</v>
+      </c>
+      <c r="AF4" s="10">
+        <v>6</v>
+      </c>
+      <c r="AG4" s="10">
+        <v>5</v>
+      </c>
+      <c r="AH4" s="10">
+        <v>4</v>
+      </c>
+      <c r="AI4" s="10">
+        <v>3</v>
+      </c>
+      <c r="AJ4" s="10">
+        <v>2</v>
+      </c>
+      <c r="AK4" s="10">
+        <v>1</v>
+      </c>
+      <c r="AL4" s="10">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:38">
       <c r="A5" s="5" t="s">
         <v>98</v>
       </c>
@@ -3679,8 +3850,41 @@
         <v>30</v>
       </c>
       <c r="R5" s="10"/>
-    </row>
-    <row r="6" spans="1:18">
+      <c r="AA5" s="10">
+        <v>11</v>
+      </c>
+      <c r="AC5" s="10">
+        <v>9</v>
+      </c>
+      <c r="AD5" s="10">
+        <v>8</v>
+      </c>
+      <c r="AE5" s="10">
+        <v>7</v>
+      </c>
+      <c r="AF5" s="10">
+        <v>6</v>
+      </c>
+      <c r="AG5" s="10">
+        <v>5</v>
+      </c>
+      <c r="AH5" s="10">
+        <v>4</v>
+      </c>
+      <c r="AI5" s="10">
+        <v>3</v>
+      </c>
+      <c r="AJ5" s="10">
+        <v>2</v>
+      </c>
+      <c r="AK5" s="10">
+        <v>1</v>
+      </c>
+      <c r="AL5" s="10">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:38">
       <c r="A6" s="5" t="s">
         <v>102</v>
       </c>
@@ -3715,8 +3919,38 @@
       <c r="P6" s="10"/>
       <c r="Q6" s="10"/>
       <c r="R6" s="10"/>
-    </row>
-    <row r="7" spans="1:18">
+      <c r="U6" s="10"/>
+      <c r="V6" s="10"/>
+      <c r="W6" s="10"/>
+      <c r="AD6" s="10">
+        <v>8</v>
+      </c>
+      <c r="AE6" s="10">
+        <v>7</v>
+      </c>
+      <c r="AF6" s="10">
+        <v>6</v>
+      </c>
+      <c r="AG6" s="10">
+        <v>5</v>
+      </c>
+      <c r="AH6" s="10">
+        <v>4</v>
+      </c>
+      <c r="AI6" s="10">
+        <v>3</v>
+      </c>
+      <c r="AJ6" s="10">
+        <v>2</v>
+      </c>
+      <c r="AK6" s="10">
+        <v>1</v>
+      </c>
+      <c r="AL6" s="10">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:38">
       <c r="A7" s="5" t="s">
         <v>34</v>
       </c>
@@ -3756,8 +3990,37 @@
       <c r="P7" s="10"/>
       <c r="Q7" s="10"/>
       <c r="R7" s="10"/>
-    </row>
-    <row r="8" spans="1:18">
+      <c r="V7" s="10"/>
+      <c r="W7" s="10"/>
+      <c r="AD7" s="10">
+        <v>8</v>
+      </c>
+      <c r="AE7" s="10">
+        <v>7</v>
+      </c>
+      <c r="AF7" s="10">
+        <v>6</v>
+      </c>
+      <c r="AG7" s="10">
+        <v>5</v>
+      </c>
+      <c r="AH7" s="10">
+        <v>4</v>
+      </c>
+      <c r="AI7" s="10">
+        <v>3</v>
+      </c>
+      <c r="AJ7" s="10">
+        <v>2</v>
+      </c>
+      <c r="AK7" s="10">
+        <v>1</v>
+      </c>
+      <c r="AL7" s="10">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:38">
       <c r="A8" s="1" t="s">
         <v>45</v>
       </c>
@@ -3813,8 +4076,35 @@
       <c r="R8" s="10">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:18">
+      <c r="AD8" s="10">
+        <v>8</v>
+      </c>
+      <c r="AE8" s="10">
+        <v>7</v>
+      </c>
+      <c r="AF8" s="10">
+        <v>6</v>
+      </c>
+      <c r="AG8" s="10">
+        <v>5</v>
+      </c>
+      <c r="AH8" s="10">
+        <v>4</v>
+      </c>
+      <c r="AI8" s="10">
+        <v>3</v>
+      </c>
+      <c r="AJ8" s="10">
+        <v>2</v>
+      </c>
+      <c r="AK8" s="10">
+        <v>1</v>
+      </c>
+      <c r="AL8" s="10">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:38">
       <c r="A9" s="5" t="s">
         <v>151</v>
       </c>
@@ -3870,8 +4160,35 @@
       <c r="R9" s="10">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:11">
+      <c r="AD9" s="10">
+        <v>8</v>
+      </c>
+      <c r="AE9" s="10">
+        <v>7</v>
+      </c>
+      <c r="AF9" s="10">
+        <v>6</v>
+      </c>
+      <c r="AG9" s="10">
+        <v>5</v>
+      </c>
+      <c r="AH9" s="10">
+        <v>4</v>
+      </c>
+      <c r="AI9" s="10">
+        <v>3</v>
+      </c>
+      <c r="AJ9" s="10">
+        <v>2</v>
+      </c>
+      <c r="AK9" s="10">
+        <v>1</v>
+      </c>
+      <c r="AL9" s="10">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:38">
       <c r="A10" s="5" t="s">
         <v>183</v>
       </c>
@@ -3891,14 +4208,59 @@
       <c r="I10" s="10"/>
       <c r="J10" s="10"/>
       <c r="K10" s="10"/>
-    </row>
-    <row r="11" spans="4:4">
+      <c r="AD10" s="10">
+        <v>8</v>
+      </c>
+      <c r="AF10" s="10">
+        <v>6</v>
+      </c>
+      <c r="AG10" s="10">
+        <v>5</v>
+      </c>
+      <c r="AH10" s="10">
+        <v>4</v>
+      </c>
+      <c r="AI10" s="10">
+        <v>3</v>
+      </c>
+      <c r="AJ10" s="10">
+        <v>2</v>
+      </c>
+      <c r="AK10" s="10">
+        <v>1</v>
+      </c>
+      <c r="AL10" s="10">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="4:38">
       <c r="D11" s="4" t="e">
         <f t="shared" si="1"/>
         <v>#NUM!</v>
       </c>
-    </row>
-    <row r="12" spans="1:18">
+      <c r="AF11" s="10">
+        <v>6</v>
+      </c>
+      <c r="AG11" s="10">
+        <v>5</v>
+      </c>
+      <c r="AH11" s="10">
+        <v>4</v>
+      </c>
+      <c r="AI11" s="10">
+        <v>3</v>
+      </c>
+      <c r="AJ11" s="10">
+        <v>2</v>
+      </c>
+      <c r="AK11" s="10">
+        <v>1</v>
+      </c>
+      <c r="AL11" s="10">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:38">
       <c r="A12" s="1" t="s">
         <v>40</v>
       </c>
@@ -3943,8 +4305,27 @@
       </c>
       <c r="Q12" s="10"/>
       <c r="R12" s="10"/>
-    </row>
-    <row r="13" spans="1:18">
+      <c r="W12" s="10"/>
+      <c r="AG12" s="10">
+        <v>5</v>
+      </c>
+      <c r="AH12" s="10">
+        <v>4</v>
+      </c>
+      <c r="AI12" s="10">
+        <v>3</v>
+      </c>
+      <c r="AJ12" s="10">
+        <v>2</v>
+      </c>
+      <c r="AK12" s="10">
+        <v>1</v>
+      </c>
+      <c r="AL12" s="10">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:38">
       <c r="A13" s="5" t="s">
         <v>77</v>
       </c>
@@ -3994,8 +4375,26 @@
         <v>30</v>
       </c>
       <c r="R13" s="10"/>
-    </row>
-    <row r="14" spans="1:18">
+      <c r="AG13" s="10">
+        <v>5</v>
+      </c>
+      <c r="AH13" s="10">
+        <v>4</v>
+      </c>
+      <c r="AI13" s="10">
+        <v>3</v>
+      </c>
+      <c r="AJ13" s="10">
+        <v>2</v>
+      </c>
+      <c r="AK13" s="10">
+        <v>1</v>
+      </c>
+      <c r="AL13" s="10">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:38">
       <c r="A14" s="5" t="s">
         <v>80</v>
       </c>
@@ -4050,8 +4449,26 @@
       <c r="R14" s="10">
         <v>30</v>
       </c>
-    </row>
-    <row r="15" spans="1:18">
+      <c r="AG14" s="10">
+        <v>5</v>
+      </c>
+      <c r="AH14" s="10">
+        <v>4</v>
+      </c>
+      <c r="AI14" s="10">
+        <v>3</v>
+      </c>
+      <c r="AJ14" s="10">
+        <v>2</v>
+      </c>
+      <c r="AK14" s="10">
+        <v>1</v>
+      </c>
+      <c r="AL14" s="10">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:38">
       <c r="A15" s="1" t="s">
         <v>127</v>
       </c>
@@ -4106,8 +4523,23 @@
       <c r="R15" s="10">
         <v>30</v>
       </c>
-    </row>
-    <row r="16" spans="1:18">
+      <c r="AH15" s="10">
+        <v>4</v>
+      </c>
+      <c r="AI15" s="10">
+        <v>3</v>
+      </c>
+      <c r="AJ15" s="10">
+        <v>2</v>
+      </c>
+      <c r="AK15" s="10">
+        <v>1</v>
+      </c>
+      <c r="AL15" s="10">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:38">
       <c r="A16" s="7" t="s">
         <v>131</v>
       </c>
@@ -4162,8 +4594,20 @@
       <c r="R16" s="10">
         <v>30</v>
       </c>
-    </row>
-    <row r="17" spans="1:18">
+      <c r="AI16" s="10">
+        <v>3</v>
+      </c>
+      <c r="AJ16" s="10">
+        <v>2</v>
+      </c>
+      <c r="AK16" s="10">
+        <v>1</v>
+      </c>
+      <c r="AL16" s="10">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:37">
       <c r="A17" s="5" t="s">
         <v>135</v>
       </c>
@@ -4213,8 +4657,17 @@
         <v>30</v>
       </c>
       <c r="R17" s="10"/>
-    </row>
-    <row r="18" spans="1:18">
+      <c r="AI17" s="10">
+        <v>3</v>
+      </c>
+      <c r="AJ17" s="10">
+        <v>2</v>
+      </c>
+      <c r="AK17" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:36">
       <c r="A18" s="5" t="s">
         <v>154</v>
       </c>
@@ -4261,8 +4714,15 @@
         <v>30</v>
       </c>
       <c r="R18" s="10"/>
-    </row>
-    <row r="19" spans="1:18">
+      <c r="X18" s="10"/>
+      <c r="AI18" s="10">
+        <v>3</v>
+      </c>
+      <c r="AJ18" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:36">
       <c r="A19" s="5" t="s">
         <v>186</v>
       </c>
@@ -4317,6 +4777,13 @@
       </c>
       <c r="R19" s="10">
         <v>1</v>
+      </c>
+      <c r="X19" s="10"/>
+      <c r="AI19" s="10">
+        <v>3</v>
+      </c>
+      <c r="AJ19" s="10">
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="4:4">
@@ -5127,7 +5594,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:18">
+    <row r="36" spans="1:24">
       <c r="A36" s="5" t="s">
         <v>51</v>
       </c>
@@ -5175,6 +5642,8 @@
       </c>
       <c r="Q36" s="10"/>
       <c r="R36" s="10"/>
+      <c r="W36" s="10"/>
+      <c r="X36" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
